--- a/teaching/traditional_assets/database/data/hong_kong/hong_kong_heathcare_information_and_technology.xlsx
+++ b/teaching/traditional_assets/database/data/hong_kong/hong_kong_heathcare_information_and_technology.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="sehk_241" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,34 +593,34 @@
         </is>
       </c>
       <c r="D2">
-        <v>1.891</v>
+        <v>2.314</v>
       </c>
       <c r="G2">
-        <v>0.02046783625730994</v>
+        <v>0.02288891276321444</v>
       </c>
       <c r="H2">
-        <v>-0.01364522417153996</v>
+        <v>-0.00456059303824667</v>
       </c>
       <c r="I2">
-        <v>-0.004112752092242039</v>
+        <v>0.01289213579716373</v>
       </c>
       <c r="J2">
-        <v>-0.002056376046121019</v>
+        <v>0.01063401014821952</v>
       </c>
       <c r="K2">
-        <v>0.147</v>
+        <v>40.9</v>
       </c>
       <c r="L2">
-        <v>0.0001432748538011696</v>
+        <v>0.02197034808766652</v>
       </c>
       <c r="M2">
-        <v>5.49</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="N2">
-        <v>0.0003953964047015441</v>
+        <v>2.060079784019019e-05</v>
       </c>
       <c r="O2">
-        <v>37.34693877551021</v>
+        <v>0.02</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -630,79 +632,79 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>5.49</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2">
-        <v>372</v>
+        <v>1806.5</v>
       </c>
       <c r="V2">
-        <v>0.02679188753168933</v>
+        <v>0.04549552725953983</v>
       </c>
       <c r="W2">
-        <v>0.0003742362525458248</v>
+        <v>0.05822892938496583</v>
       </c>
       <c r="X2">
-        <v>0.08959317216621676</v>
+        <v>0.06084074408382813</v>
       </c>
       <c r="Y2">
-        <v>-0.08921893591367093</v>
+        <v>-0.002611814698862298</v>
       </c>
       <c r="Z2">
-        <v>2.630644995300015</v>
+        <v>3.926929080707083</v>
       </c>
       <c r="AA2">
-        <v>-0.005409595354183091</v>
+        <v>0.04175900369557749</v>
       </c>
       <c r="AB2">
-        <v>0.08893163744938329</v>
+        <v>0.06083368306976848</v>
       </c>
       <c r="AC2">
-        <v>-0.09434123280356638</v>
+        <v>-0.01907467937419099</v>
       </c>
       <c r="AD2">
-        <v>151.3</v>
+        <v>6.95</v>
       </c>
       <c r="AE2">
-        <v>10.09841823320166</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>161.3984182332017</v>
+        <v>6.95</v>
       </c>
       <c r="AG2">
-        <v>-210.6015817667983</v>
+        <v>-1799.55</v>
       </c>
       <c r="AH2">
-        <v>0.01149054095830601</v>
+        <v>0.0001750005980236264</v>
       </c>
       <c r="AI2">
-        <v>0.1888145962726498</v>
+        <v>0.003258245235695366</v>
       </c>
       <c r="AJ2">
-        <v>-0.01540138407571897</v>
+        <v>-0.04747194827429293</v>
       </c>
       <c r="AK2">
-        <v>-0.4362101734663791</v>
+        <v>-5.510794671566376</v>
       </c>
       <c r="AL2">
-        <v>5.99</v>
+        <v>0.589</v>
       </c>
       <c r="AM2">
-        <v>2.64</v>
+        <v>-14.911</v>
       </c>
       <c r="AN2">
-        <v>-95.15723270440253</v>
+        <v>0.2736220472440945</v>
       </c>
       <c r="AO2">
-        <v>-0.991652754590985</v>
+        <v>40.74702886247878</v>
       </c>
       <c r="AP2">
-        <v>132.453825010565</v>
+        <v>-70.8484251968504</v>
       </c>
       <c r="AQ2">
-        <v>-2.25</v>
+        <v>-1.609549996646771</v>
       </c>
     </row>
     <row r="3">
@@ -722,34 +724,34 @@
         </is>
       </c>
       <c r="D3">
-        <v>1.891</v>
+        <v>2.314</v>
       </c>
       <c r="G3">
-        <v>0.02046783625730994</v>
+        <v>0.02288891276321444</v>
       </c>
       <c r="H3">
-        <v>-0.01364522417153996</v>
+        <v>-0.00456059303824667</v>
       </c>
       <c r="I3">
-        <v>-0.004112752092242039</v>
+        <v>0.01289213579716373</v>
       </c>
       <c r="J3">
-        <v>-0.002056376046121019</v>
+        <v>0.01063401014821952</v>
       </c>
       <c r="K3">
-        <v>0.147</v>
+        <v>40.9</v>
       </c>
       <c r="L3">
-        <v>0.0001432748538011696</v>
+        <v>0.02197034808766652</v>
       </c>
       <c r="M3">
-        <v>5.49</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="N3">
-        <v>0.0003953964047015441</v>
+        <v>2.060079784019019e-05</v>
       </c>
       <c r="O3">
-        <v>37.34693877551021</v>
+        <v>0.02</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -761,79 +763,8797 @@
         <v>-0</v>
       </c>
       <c r="S3">
-        <v>5.49</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="U3">
-        <v>372</v>
+        <v>1806.5</v>
       </c>
       <c r="V3">
-        <v>0.02679188753168933</v>
+        <v>0.04549552725953983</v>
       </c>
       <c r="W3">
-        <v>0.0003742362525458248</v>
+        <v>0.05822892938496583</v>
       </c>
       <c r="X3">
-        <v>0.08959317216621676</v>
+        <v>0.06084074408382813</v>
       </c>
       <c r="Y3">
-        <v>-0.08921893591367093</v>
+        <v>-0.002611814698862298</v>
       </c>
       <c r="Z3">
-        <v>2.630644995300015</v>
+        <v>3.926929080707083</v>
       </c>
       <c r="AA3">
-        <v>-0.005409595354183091</v>
+        <v>0.04175900369557749</v>
       </c>
       <c r="AB3">
-        <v>0.08893163744938329</v>
+        <v>0.06083368306976848</v>
       </c>
       <c r="AC3">
-        <v>-0.09434123280356638</v>
+        <v>-0.01907467937419099</v>
       </c>
       <c r="AD3">
-        <v>151.3</v>
+        <v>6.95</v>
       </c>
       <c r="AE3">
-        <v>10.09841823320166</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>161.3984182332017</v>
+        <v>6.95</v>
       </c>
       <c r="AG3">
-        <v>-210.6015817667983</v>
+        <v>-1799.55</v>
       </c>
       <c r="AH3">
-        <v>0.01149054095830601</v>
+        <v>0.0001750005980236264</v>
       </c>
       <c r="AI3">
-        <v>0.1888145962726498</v>
+        <v>0.003258245235695366</v>
       </c>
       <c r="AJ3">
-        <v>-0.01540138407571897</v>
+        <v>-0.04747194827429293</v>
       </c>
       <c r="AK3">
-        <v>-0.4362101734663791</v>
+        <v>-5.510794671566376</v>
       </c>
       <c r="AL3">
-        <v>5.99</v>
+        <v>0.589</v>
       </c>
       <c r="AM3">
-        <v>2.64</v>
+        <v>-14.911</v>
       </c>
       <c r="AN3">
-        <v>-95.15723270440253</v>
+        <v>0.2736220472440945</v>
       </c>
       <c r="AO3">
-        <v>-0.991652754590985</v>
+        <v>40.74702886247878</v>
       </c>
       <c r="AP3">
-        <v>132.453825010565</v>
+        <v>-70.8484251968504</v>
       </c>
       <c r="AQ3">
-        <v>-2.25</v>
+        <v>-1.609549996646771</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alibaba Health Information Technology Limited (SEHK:241)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SEHK:241</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Heathcare Information and Technology</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.000175000598023626</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>39707.2</v>
+      </c>
+      <c r="H2">
+        <v>39714.4961867002</v>
+      </c>
+      <c r="I2">
+        <v>37907.65</v>
+      </c>
+      <c r="J2">
+        <v>37907.9961867002</v>
+      </c>
+      <c r="K2">
+        <v>6.95</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.0608336830697685</v>
+      </c>
+      <c r="N2">
+        <v>0.0608332124493853</v>
+      </c>
+      <c r="O2">
+        <v>0.0204922301965496</v>
+      </c>
+      <c r="P2">
+        <v>0.013527</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0608407440838281</v>
+      </c>
+      <c r="T2">
+        <v>0.0608332124493853</v>
+      </c>
+      <c r="U2">
+        <v>0.971477498143642</v>
+      </c>
+      <c r="V2">
+        <v>0.97133553640996</v>
+      </c>
+      <c r="W2">
+        <v>10000000</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>39707.2</v>
+      </c>
+      <c r="AB2">
+        <v>0.05305397621902236</v>
+      </c>
+      <c r="AC2">
+        <v>0.02454159304976002</v>
+      </c>
+      <c r="AD2">
+        <v>0.165</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>25.4</v>
+      </c>
+      <c r="AH2">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="AI2">
+        <v>2.792000000000002</v>
+      </c>
+      <c r="AJ2">
+        <v>6.95</v>
+      </c>
+      <c r="AK2">
+        <v>6.949999999999999</v>
+      </c>
+      <c r="AL2">
+        <v>0.589</v>
+      </c>
+      <c r="AM2">
+        <v>6.95</v>
+      </c>
+      <c r="AN2">
+        <v>1806.5</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.06083321244938533</v>
+      </c>
+      <c r="C2">
+        <v>39714.49618670017</v>
+      </c>
+      <c r="D2">
+        <v>37907.99618670017</v>
+      </c>
+      <c r="E2">
+        <v>-6.95</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1806.5</v>
+      </c>
+      <c r="H2">
+        <v>39707.2</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>25.4</v>
+      </c>
+      <c r="K2">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L2">
+        <v>24</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>24</v>
+      </c>
+      <c r="O2">
+        <v>3.96</v>
+      </c>
+      <c r="P2">
+        <v>20.04</v>
+      </c>
+      <c r="Q2">
+        <v>21.44</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.06083321244938533</v>
+      </c>
+      <c r="T2">
+        <v>0.9713355364099598</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.165</v>
+      </c>
+      <c r="W2">
+        <v>0.013527</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.06200584860094175</v>
+      </c>
+      <c r="C3">
+        <v>38473.95138438064</v>
+      </c>
+      <c r="D3">
+        <v>37064.59288438064</v>
+      </c>
+      <c r="E3">
+        <v>390.1915</v>
+      </c>
+      <c r="F3">
+        <v>397.1415</v>
+      </c>
+      <c r="G3">
+        <v>1806.5</v>
+      </c>
+      <c r="H3">
+        <v>39707.2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>25.4</v>
+      </c>
+      <c r="K3">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L3">
+        <v>24</v>
+      </c>
+      <c r="M3">
+        <v>55.67923829999999</v>
+      </c>
+      <c r="N3">
+        <v>-31.67923829999999</v>
+      </c>
+      <c r="O3">
+        <v>-5.227074319499998</v>
+      </c>
+      <c r="P3">
+        <v>-26.45216398049999</v>
+      </c>
+      <c r="Q3">
+        <v>-25.05216398049999</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.06131672845646664</v>
+      </c>
+      <c r="T3">
+        <v>0.9804491984111869</v>
+      </c>
+      <c r="U3">
+        <v>0.1402</v>
+      </c>
+      <c r="V3">
+        <v>0.07112166259645117</v>
+      </c>
+      <c r="W3">
+        <v>0.1302287429039775</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>0.4310403793724312</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.06331484860094173</v>
+      </c>
+      <c r="C4">
+        <v>37178.583686542</v>
+      </c>
+      <c r="D4">
+        <v>36166.366686542</v>
+      </c>
+      <c r="E4">
+        <v>787.3329999999999</v>
+      </c>
+      <c r="F4">
+        <v>794.2829999999999</v>
+      </c>
+      <c r="G4">
+        <v>1806.5</v>
+      </c>
+      <c r="H4">
+        <v>39707.2</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>25.4</v>
+      </c>
+      <c r="K4">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L4">
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>111.3584766</v>
+      </c>
+      <c r="N4">
+        <v>-87.35847659999997</v>
+      </c>
+      <c r="O4">
+        <v>-14.414148639</v>
+      </c>
+      <c r="P4">
+        <v>-72.94432796099997</v>
+      </c>
+      <c r="Q4">
+        <v>-71.54432796099996</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.06184751139989997</v>
+      </c>
+      <c r="T4">
+        <v>0.9904537820684437</v>
+      </c>
+      <c r="U4">
+        <v>0.1402</v>
+      </c>
+      <c r="V4">
+        <v>0.03556083129822558</v>
+      </c>
+      <c r="W4">
+        <v>0.1352143714519888</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>0.2155201896862157</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.06593752759152709</v>
+      </c>
+      <c r="C5">
+        <v>35106.70859367256</v>
+      </c>
+      <c r="D5">
+        <v>34491.63309367256</v>
+      </c>
+      <c r="E5">
+        <v>1184.4745</v>
+      </c>
+      <c r="F5">
+        <v>1191.4245</v>
+      </c>
+      <c r="G5">
+        <v>1806.5</v>
+      </c>
+      <c r="H5">
+        <v>39707.2</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>25.4</v>
+      </c>
+      <c r="K5">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L5">
+        <v>24</v>
+      </c>
+      <c r="M5">
+        <v>218.86468065</v>
+      </c>
+      <c r="N5">
+        <v>-194.86468065</v>
+      </c>
+      <c r="O5">
+        <v>-32.15267230724999</v>
+      </c>
+      <c r="P5">
+        <v>-162.71200834275</v>
+      </c>
+      <c r="Q5">
+        <v>-161.31200834275</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.06239818573452301</v>
+      </c>
+      <c r="T5">
+        <v>1.000833293160123</v>
+      </c>
+      <c r="U5">
+        <v>0.1837</v>
+      </c>
+      <c r="V5">
+        <v>0.0180933716131781</v>
+      </c>
+      <c r="W5">
+        <v>0.1803762476346592</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>0.1096567976556249</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.06768152759152707</v>
+      </c>
+      <c r="C6">
+        <v>33679.2170737787</v>
+      </c>
+      <c r="D6">
+        <v>33461.2830737787</v>
+      </c>
+      <c r="E6">
+        <v>1581.616</v>
+      </c>
+      <c r="F6">
+        <v>1588.566</v>
+      </c>
+      <c r="G6">
+        <v>1806.5</v>
+      </c>
+      <c r="H6">
+        <v>39707.2</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>25.4</v>
+      </c>
+      <c r="K6">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L6">
+        <v>24</v>
+      </c>
+      <c r="M6">
+        <v>291.8195742</v>
+      </c>
+      <c r="N6">
+        <v>-267.8195742</v>
+      </c>
+      <c r="O6">
+        <v>-44.190229743</v>
+      </c>
+      <c r="P6">
+        <v>-223.629344457</v>
+      </c>
+      <c r="Q6">
+        <v>-222.229344457</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.06295129183592427</v>
+      </c>
+      <c r="T6">
+        <v>1.011258639963874</v>
+      </c>
+      <c r="U6">
+        <v>0.1837</v>
+      </c>
+      <c r="V6">
+        <v>0.01357002870988358</v>
+      </c>
+      <c r="W6">
+        <v>0.1812071857259944</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>0.08224259824171865</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.06942552759152709</v>
+      </c>
+      <c r="C7">
+        <v>32311.49818313815</v>
+      </c>
+      <c r="D7">
+        <v>32490.70568313815</v>
+      </c>
+      <c r="E7">
+        <v>1978.7575</v>
+      </c>
+      <c r="F7">
+        <v>1985.7075</v>
+      </c>
+      <c r="G7">
+        <v>1806.5</v>
+      </c>
+      <c r="H7">
+        <v>39707.2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>25.4</v>
+      </c>
+      <c r="K7">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L7">
+        <v>24</v>
+      </c>
+      <c r="M7">
+        <v>364.77446775</v>
+      </c>
+      <c r="N7">
+        <v>-340.77446775</v>
+      </c>
+      <c r="O7">
+        <v>-56.22778717875</v>
+      </c>
+      <c r="P7">
+        <v>-284.54668057125</v>
+      </c>
+      <c r="Q7">
+        <v>-283.14668057125</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.06351604227630243</v>
+      </c>
+      <c r="T7">
+        <v>1.021903467752968</v>
+      </c>
+      <c r="U7">
+        <v>0.1837</v>
+      </c>
+      <c r="V7">
+        <v>0.01085602296790686</v>
+      </c>
+      <c r="W7">
+        <v>0.1817057485807955</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>0.06579407859337494</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.07116952759152706</v>
+      </c>
+      <c r="C8">
+        <v>30998.49724607414</v>
+      </c>
+      <c r="D8">
+        <v>31574.84624607414</v>
+      </c>
+      <c r="E8">
+        <v>2375.899</v>
+      </c>
+      <c r="F8">
+        <v>2382.849</v>
+      </c>
+      <c r="G8">
+        <v>1806.5</v>
+      </c>
+      <c r="H8">
+        <v>39707.2</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>25.4</v>
+      </c>
+      <c r="K8">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L8">
+        <v>24</v>
+      </c>
+      <c r="M8">
+        <v>437.7293612999999</v>
+      </c>
+      <c r="N8">
+        <v>-413.7293612999999</v>
+      </c>
+      <c r="O8">
+        <v>-68.26534461449999</v>
+      </c>
+      <c r="P8">
+        <v>-345.4640166854999</v>
+      </c>
+      <c r="Q8">
+        <v>-344.0640166855</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.06409280868349712</v>
+      </c>
+      <c r="T8">
+        <v>1.032774781239701</v>
+      </c>
+      <c r="U8">
+        <v>0.1837</v>
+      </c>
+      <c r="V8">
+        <v>0.009046685806589051</v>
+      </c>
+      <c r="W8">
+        <v>0.1820381238173296</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>0.05482839882781243</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.07291352759152708</v>
+      </c>
+      <c r="C9">
+        <v>29735.71389381364</v>
+      </c>
+      <c r="D9">
+        <v>30709.20439381364</v>
+      </c>
+      <c r="E9">
+        <v>2773.0405</v>
+      </c>
+      <c r="F9">
+        <v>2779.9905</v>
+      </c>
+      <c r="G9">
+        <v>1806.5</v>
+      </c>
+      <c r="H9">
+        <v>39707.2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>25.4</v>
+      </c>
+      <c r="K9">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L9">
+        <v>24</v>
+      </c>
+      <c r="M9">
+        <v>510.68425485</v>
+      </c>
+      <c r="N9">
+        <v>-486.68425485</v>
+      </c>
+      <c r="O9">
+        <v>-80.30290205025</v>
+      </c>
+      <c r="P9">
+        <v>-406.38135279975</v>
+      </c>
+      <c r="Q9">
+        <v>-404.98135279975</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.06468197866934119</v>
+      </c>
+      <c r="T9">
+        <v>1.043879886414322</v>
+      </c>
+      <c r="U9">
+        <v>0.1837</v>
+      </c>
+      <c r="V9">
+        <v>0.007754302119933471</v>
+      </c>
+      <c r="W9">
+        <v>0.1822755347005682</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>0.04699577042383918</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.07465752759152708</v>
+      </c>
+      <c r="C10">
+        <v>28519.12810887172</v>
+      </c>
+      <c r="D10">
+        <v>29889.76010887172</v>
+      </c>
+      <c r="E10">
+        <v>3170.182</v>
+      </c>
+      <c r="F10">
+        <v>3177.132</v>
+      </c>
+      <c r="G10">
+        <v>1806.5</v>
+      </c>
+      <c r="H10">
+        <v>39707.2</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>25.4</v>
+      </c>
+      <c r="K10">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L10">
+        <v>24</v>
+      </c>
+      <c r="M10">
+        <v>583.6391484</v>
+      </c>
+      <c r="N10">
+        <v>-559.6391484</v>
+      </c>
+      <c r="O10">
+        <v>-92.340459486</v>
+      </c>
+      <c r="P10">
+        <v>-467.298688914</v>
+      </c>
+      <c r="Q10">
+        <v>-465.898688914</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.06528395669835577</v>
+      </c>
+      <c r="T10">
+        <v>1.055226406918825</v>
+      </c>
+      <c r="U10">
+        <v>0.1837</v>
+      </c>
+      <c r="V10">
+        <v>0.006785014354941788</v>
+      </c>
+      <c r="W10">
+        <v>0.1824535928629972</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>0.04112129912085927</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.07640152759152707</v>
+      </c>
+      <c r="C11">
+        <v>27345.1378022813</v>
+      </c>
+      <c r="D11">
+        <v>29112.9113022813</v>
+      </c>
+      <c r="E11">
+        <v>3567.3235</v>
+      </c>
+      <c r="F11">
+        <v>3574.273499999999</v>
+      </c>
+      <c r="G11">
+        <v>1806.5</v>
+      </c>
+      <c r="H11">
+        <v>39707.2</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>25.4</v>
+      </c>
+      <c r="K11">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L11">
+        <v>24</v>
+      </c>
+      <c r="M11">
+        <v>656.5940419499999</v>
+      </c>
+      <c r="N11">
+        <v>-632.5940419499999</v>
+      </c>
+      <c r="O11">
+        <v>-104.37801692175</v>
+      </c>
+      <c r="P11">
+        <v>-528.2160250282499</v>
+      </c>
+      <c r="Q11">
+        <v>-526.8160250282499</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.06589916501372231</v>
+      </c>
+      <c r="T11">
+        <v>1.066822301500351</v>
+      </c>
+      <c r="U11">
+        <v>0.1837</v>
+      </c>
+      <c r="V11">
+        <v>0.006031123871059368</v>
+      </c>
+      <c r="W11">
+        <v>0.1825920825448864</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>0.03655226588520832</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.0781455275915271</v>
+      </c>
+      <c r="C12">
+        <v>26210.50587861247</v>
+      </c>
+      <c r="D12">
+        <v>28375.42087861247</v>
+      </c>
+      <c r="E12">
+        <v>3964.465</v>
+      </c>
+      <c r="F12">
+        <v>3971.415</v>
+      </c>
+      <c r="G12">
+        <v>1806.5</v>
+      </c>
+      <c r="H12">
+        <v>39707.2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>25.4</v>
+      </c>
+      <c r="K12">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L12">
+        <v>24</v>
+      </c>
+      <c r="M12">
+        <v>729.5489355</v>
+      </c>
+      <c r="N12">
+        <v>-705.5489355</v>
+      </c>
+      <c r="O12">
+        <v>-116.4155743575</v>
+      </c>
+      <c r="P12">
+        <v>-589.1333611425</v>
+      </c>
+      <c r="Q12">
+        <v>-587.7333611425</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.0665280446249859</v>
+      </c>
+      <c r="T12">
+        <v>1.078675882628133</v>
+      </c>
+      <c r="U12">
+        <v>0.1837</v>
+      </c>
+      <c r="V12">
+        <v>0.00542801148395343</v>
+      </c>
+      <c r="W12">
+        <v>0.1827028742903977</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>0.03289703929668741</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.07988952759152709</v>
+      </c>
+      <c r="C13">
+        <v>25112.31514792971</v>
+      </c>
+      <c r="D13">
+        <v>27674.37164792971</v>
+      </c>
+      <c r="E13">
+        <v>4361.6065</v>
+      </c>
+      <c r="F13">
+        <v>4368.5565</v>
+      </c>
+      <c r="G13">
+        <v>1806.5</v>
+      </c>
+      <c r="H13">
+        <v>39707.2</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>25.4</v>
+      </c>
+      <c r="K13">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L13">
+        <v>24</v>
+      </c>
+      <c r="M13">
+        <v>802.5038290499999</v>
+      </c>
+      <c r="N13">
+        <v>-778.5038290499999</v>
+      </c>
+      <c r="O13">
+        <v>-128.45313179325</v>
+      </c>
+      <c r="P13">
+        <v>-650.0506972567499</v>
+      </c>
+      <c r="Q13">
+        <v>-648.6506972567499</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.0671710563623453</v>
+      </c>
+      <c r="T13">
+        <v>1.090795836365527</v>
+      </c>
+      <c r="U13">
+        <v>0.1837</v>
+      </c>
+      <c r="V13">
+        <v>0.004934555894503118</v>
+      </c>
+      <c r="W13">
+        <v>0.1827935220821798</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>0.029906399360625</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.08163352759152709</v>
+      </c>
+      <c r="C14">
+        <v>24047.92976032975</v>
+      </c>
+      <c r="D14">
+        <v>27007.12776032975</v>
+      </c>
+      <c r="E14">
+        <v>4758.748</v>
+      </c>
+      <c r="F14">
+        <v>4765.697999999999</v>
+      </c>
+      <c r="G14">
+        <v>1806.5</v>
+      </c>
+      <c r="H14">
+        <v>39707.2</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>25.4</v>
+      </c>
+      <c r="K14">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L14">
+        <v>24</v>
+      </c>
+      <c r="M14">
+        <v>875.4587225999999</v>
+      </c>
+      <c r="N14">
+        <v>-851.4587225999999</v>
+      </c>
+      <c r="O14">
+        <v>-140.490689229</v>
+      </c>
+      <c r="P14">
+        <v>-710.9680333709998</v>
+      </c>
+      <c r="Q14">
+        <v>-709.5680333709998</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.06782868200282649</v>
+      </c>
+      <c r="T14">
+        <v>1.103191243596954</v>
+      </c>
+      <c r="U14">
+        <v>0.1837</v>
+      </c>
+      <c r="V14">
+        <v>0.004523342903294526</v>
+      </c>
+      <c r="W14">
+        <v>0.1828690619086648</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>0.02741419941390622</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.08337752759152708</v>
+      </c>
+      <c r="C15">
+        <v>23014.96208813711</v>
+      </c>
+      <c r="D15">
+        <v>26371.30158813711</v>
+      </c>
+      <c r="E15">
+        <v>5155.889499999999</v>
+      </c>
+      <c r="F15">
+        <v>5162.839499999999</v>
+      </c>
+      <c r="G15">
+        <v>1806.5</v>
+      </c>
+      <c r="H15">
+        <v>39707.2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>25.4</v>
+      </c>
+      <c r="K15">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L15">
+        <v>24</v>
+      </c>
+      <c r="M15">
+        <v>948.4136161499998</v>
+      </c>
+      <c r="N15">
+        <v>-924.4136161499998</v>
+      </c>
+      <c r="O15">
+        <v>-152.52824666475</v>
+      </c>
+      <c r="P15">
+        <v>-771.8853694852498</v>
+      </c>
+      <c r="Q15">
+        <v>-770.4853694852499</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.06850142547412334</v>
+      </c>
+      <c r="T15">
+        <v>1.115871602718758</v>
+      </c>
+      <c r="U15">
+        <v>0.1837</v>
+      </c>
+      <c r="V15">
+        <v>0.004175393449194947</v>
+      </c>
+      <c r="W15">
+        <v>0.1829329802233829</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>0.02530541484360571</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.08512152759152708</v>
+      </c>
+      <c r="C16">
+        <v>22011.24417863134</v>
+      </c>
+      <c r="D16">
+        <v>25764.72517863134</v>
+      </c>
+      <c r="E16">
+        <v>5553.031</v>
+      </c>
+      <c r="F16">
+        <v>5559.981</v>
+      </c>
+      <c r="G16">
+        <v>1806.5</v>
+      </c>
+      <c r="H16">
+        <v>39707.2</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>25.4</v>
+      </c>
+      <c r="K16">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L16">
+        <v>24</v>
+      </c>
+      <c r="M16">
+        <v>1021.3685097</v>
+      </c>
+      <c r="N16">
+        <v>-997.3685097</v>
+      </c>
+      <c r="O16">
+        <v>-164.5658041005</v>
+      </c>
+      <c r="P16">
+        <v>-832.8027055995</v>
+      </c>
+      <c r="Q16">
+        <v>-831.4027055995</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.0691898141424271</v>
+      </c>
+      <c r="T16">
+        <v>1.128846853913162</v>
+      </c>
+      <c r="U16">
+        <v>0.1837</v>
+      </c>
+      <c r="V16">
+        <v>0.003877151059966736</v>
+      </c>
+      <c r="W16">
+        <v>0.1829877673502841</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>0.02349788521191964</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.08686552759152708</v>
+      </c>
+      <c r="C17">
+        <v>21034.80305795241</v>
+      </c>
+      <c r="D17">
+        <v>25185.42555795241</v>
+      </c>
+      <c r="E17">
+        <v>5950.172499999999</v>
+      </c>
+      <c r="F17">
+        <v>5957.122499999999</v>
+      </c>
+      <c r="G17">
+        <v>1806.5</v>
+      </c>
+      <c r="H17">
+        <v>39707.2</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>25.4</v>
+      </c>
+      <c r="K17">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L17">
+        <v>24</v>
+      </c>
+      <c r="M17">
+        <v>1094.32340325</v>
+      </c>
+      <c r="N17">
+        <v>-1070.32340325</v>
+      </c>
+      <c r="O17">
+        <v>-176.60336153625</v>
+      </c>
+      <c r="P17">
+        <v>-893.7200417137498</v>
+      </c>
+      <c r="Q17">
+        <v>-892.3200417137498</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.06989440019116154</v>
+      </c>
+      <c r="T17">
+        <v>1.14212740513567</v>
+      </c>
+      <c r="U17">
+        <v>0.1837</v>
+      </c>
+      <c r="V17">
+        <v>0.003618674322635621</v>
+      </c>
+      <c r="W17">
+        <v>0.1830352495269318</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>0.02193135953112502</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.08860952759152707</v>
+      </c>
+      <c r="C18">
+        <v>20083.83929337797</v>
+      </c>
+      <c r="D18">
+        <v>24631.60329337797</v>
+      </c>
+      <c r="E18">
+        <v>6347.313999999999</v>
+      </c>
+      <c r="F18">
+        <v>6354.263999999999</v>
+      </c>
+      <c r="G18">
+        <v>1806.5</v>
+      </c>
+      <c r="H18">
+        <v>39707.2</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>25.4</v>
+      </c>
+      <c r="K18">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L18">
+        <v>24</v>
+      </c>
+      <c r="M18">
+        <v>1167.2782968</v>
+      </c>
+      <c r="N18">
+        <v>-1143.2782968</v>
+      </c>
+      <c r="O18">
+        <v>-188.640918972</v>
+      </c>
+      <c r="P18">
+        <v>-954.6373778279999</v>
+      </c>
+      <c r="Q18">
+        <v>-953.2373778279999</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.07061576209819917</v>
+      </c>
+      <c r="T18">
+        <v>1.155724159958713</v>
+      </c>
+      <c r="U18">
+        <v>0.1837</v>
+      </c>
+      <c r="V18">
+        <v>0.003392507177470894</v>
+      </c>
+      <c r="W18">
+        <v>0.1830767964314986</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>0.02056064956042969</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.09035352759152708</v>
+      </c>
+      <c r="C19">
+        <v>19156.70832320786</v>
+      </c>
+      <c r="D19">
+        <v>24101.61382320786</v>
+      </c>
+      <c r="E19">
+        <v>6744.4555</v>
+      </c>
+      <c r="F19">
+        <v>6751.4055</v>
+      </c>
+      <c r="G19">
+        <v>1806.5</v>
+      </c>
+      <c r="H19">
+        <v>39707.2</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>25.4</v>
+      </c>
+      <c r="K19">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L19">
+        <v>24</v>
+      </c>
+      <c r="M19">
+        <v>1240.23319035</v>
+      </c>
+      <c r="N19">
+        <v>-1216.23319035</v>
+      </c>
+      <c r="O19">
+        <v>-200.67847640775</v>
+      </c>
+      <c r="P19">
+        <v>-1015.55471394225</v>
+      </c>
+      <c r="Q19">
+        <v>-1014.15471394225</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.07135450621986422</v>
+      </c>
+      <c r="T19">
+        <v>1.169648547428096</v>
+      </c>
+      <c r="U19">
+        <v>0.1837</v>
+      </c>
+      <c r="V19">
+        <v>0.003192947931737312</v>
+      </c>
+      <c r="W19">
+        <v>0.1831134554649399</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>0.01935119958628673</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.0920975275915271</v>
+      </c>
+      <c r="C20">
+        <v>18251.90414618879</v>
+      </c>
+      <c r="D20">
+        <v>23593.95114618879</v>
+      </c>
+      <c r="E20">
+        <v>7141.596999999999</v>
+      </c>
+      <c r="F20">
+        <v>7148.546999999999</v>
+      </c>
+      <c r="G20">
+        <v>1806.5</v>
+      </c>
+      <c r="H20">
+        <v>39707.2</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>25.4</v>
+      </c>
+      <c r="K20">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L20">
+        <v>24</v>
+      </c>
+      <c r="M20">
+        <v>1313.1880839</v>
+      </c>
+      <c r="N20">
+        <v>-1289.1880839</v>
+      </c>
+      <c r="O20">
+        <v>-212.7160338435</v>
+      </c>
+      <c r="P20">
+        <v>-1076.4720500565</v>
+      </c>
+      <c r="Q20">
+        <v>-1075.0720500565</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.0721112684908382</v>
+      </c>
+      <c r="T20">
+        <v>1.183912554104048</v>
+      </c>
+      <c r="U20">
+        <v>0.1837</v>
+      </c>
+      <c r="V20">
+        <v>0.003015561935529684</v>
+      </c>
+      <c r="W20">
+        <v>0.1831460412724432</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>0.01827613294260411</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.09384152759152709</v>
+      </c>
+      <c r="C21">
+        <v>17368.04502975579</v>
+      </c>
+      <c r="D21">
+        <v>23107.23352975579</v>
+      </c>
+      <c r="E21">
+        <v>7538.738499999999</v>
+      </c>
+      <c r="F21">
+        <v>7545.688499999999</v>
+      </c>
+      <c r="G21">
+        <v>1806.5</v>
+      </c>
+      <c r="H21">
+        <v>39707.2</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>25.4</v>
+      </c>
+      <c r="K21">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L21">
+        <v>24</v>
+      </c>
+      <c r="M21">
+        <v>1386.14297745</v>
+      </c>
+      <c r="N21">
+        <v>-1362.14297745</v>
+      </c>
+      <c r="O21">
+        <v>-224.75359127925</v>
+      </c>
+      <c r="P21">
+        <v>-1137.38938617075</v>
+      </c>
+      <c r="Q21">
+        <v>-1135.98938617075</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.07288671624998433</v>
+      </c>
+      <c r="T21">
+        <v>1.198528758475703</v>
+      </c>
+      <c r="U21">
+        <v>0.1837</v>
+      </c>
+      <c r="V21">
+        <v>0.002856848149449173</v>
+      </c>
+      <c r="W21">
+        <v>0.1831751969949462</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>0.01731423120878284</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.09558552759152708</v>
+      </c>
+      <c r="C22">
+        <v>16503.86095146076</v>
+      </c>
+      <c r="D22">
+        <v>22640.19095146076</v>
+      </c>
+      <c r="E22">
+        <v>7935.879999999999</v>
+      </c>
+      <c r="F22">
+        <v>7942.829999999999</v>
+      </c>
+      <c r="G22">
+        <v>1806.5</v>
+      </c>
+      <c r="H22">
+        <v>39707.2</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>25.4</v>
+      </c>
+      <c r="K22">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L22">
+        <v>24</v>
+      </c>
+      <c r="M22">
+        <v>1459.097871</v>
+      </c>
+      <c r="N22">
+        <v>-1435.097871</v>
+      </c>
+      <c r="O22">
+        <v>-236.791148715</v>
+      </c>
+      <c r="P22">
+        <v>-1198.306722285</v>
+      </c>
+      <c r="Q22">
+        <v>-1196.906722285</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.07368155020310913</v>
+      </c>
+      <c r="T22">
+        <v>1.213510367956649</v>
+      </c>
+      <c r="U22">
+        <v>0.1837</v>
+      </c>
+      <c r="V22">
+        <v>0.002714005741976715</v>
+      </c>
+      <c r="W22">
+        <v>0.1832014371451989</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>0.01644851964834371</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.09732952759152708</v>
+      </c>
+      <c r="C23">
+        <v>15658.18253322847</v>
+      </c>
+      <c r="D23">
+        <v>22191.65403322847</v>
+      </c>
+      <c r="E23">
+        <v>8333.021499999997</v>
+      </c>
+      <c r="F23">
+        <v>8339.971499999998</v>
+      </c>
+      <c r="G23">
+        <v>1806.5</v>
+      </c>
+      <c r="H23">
+        <v>39707.2</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>25.4</v>
+      </c>
+      <c r="K23">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L23">
+        <v>24</v>
+      </c>
+      <c r="M23">
+        <v>1532.05276455</v>
+      </c>
+      <c r="N23">
+        <v>-1508.05276455</v>
+      </c>
+      <c r="O23">
+        <v>-248.82870615075</v>
+      </c>
+      <c r="P23">
+        <v>-1259.22405839925</v>
+      </c>
+      <c r="Q23">
+        <v>-1257.82405839925</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.07449650653479406</v>
+      </c>
+      <c r="T23">
+        <v>1.228871258690277</v>
+      </c>
+      <c r="U23">
+        <v>0.1837</v>
+      </c>
+      <c r="V23">
+        <v>0.002584767373311158</v>
+      </c>
+      <c r="W23">
+        <v>0.1832251782335227</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.01566525680794639</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.09907352759152707</v>
+      </c>
+      <c r="C24">
+        <v>14829.93126543538</v>
+      </c>
+      <c r="D24">
+        <v>21760.54426543538</v>
+      </c>
+      <c r="E24">
+        <v>8730.162999999999</v>
+      </c>
+      <c r="F24">
+        <v>8737.112999999999</v>
+      </c>
+      <c r="G24">
+        <v>1806.5</v>
+      </c>
+      <c r="H24">
+        <v>39707.2</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>25.4</v>
+      </c>
+      <c r="K24">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L24">
+        <v>24</v>
+      </c>
+      <c r="M24">
+        <v>1605.0076581</v>
+      </c>
+      <c r="N24">
+        <v>-1581.0076581</v>
+      </c>
+      <c r="O24">
+        <v>-260.8662635865</v>
+      </c>
+      <c r="P24">
+        <v>-1320.1413945135</v>
+      </c>
+      <c r="Q24">
+        <v>-1318.7413945135</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.07533235918267603</v>
+      </c>
+      <c r="T24">
+        <v>1.244626018417076</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>0.002467277947251559</v>
+      </c>
+      <c r="W24">
+        <v>0.1832467610410899</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.0149531996803125</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.1008175275915271</v>
+      </c>
+      <c r="C25">
+        <v>14018.11084875502</v>
+      </c>
+      <c r="D25">
+        <v>21345.86534875501</v>
+      </c>
+      <c r="E25">
+        <v>9127.304499999998</v>
+      </c>
+      <c r="F25">
+        <v>9134.254499999999</v>
+      </c>
+      <c r="G25">
+        <v>1806.5</v>
+      </c>
+      <c r="H25">
+        <v>39707.2</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>25.4</v>
+      </c>
+      <c r="K25">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L25">
+        <v>24</v>
+      </c>
+      <c r="M25">
+        <v>1677.96255165</v>
+      </c>
+      <c r="N25">
+        <v>-1653.96255165</v>
+      </c>
+      <c r="O25">
+        <v>-272.90382102225</v>
+      </c>
+      <c r="P25">
+        <v>-1381.05873062775</v>
+      </c>
+      <c r="Q25">
+        <v>-1379.65873062775</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.07618992228894456</v>
+      </c>
+      <c r="T25">
+        <v>1.260789992682233</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>0.002360004993023231</v>
+      </c>
+      <c r="W25">
+        <v>0.1832664670827816</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.01430306056377717</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.1025615275915271</v>
+      </c>
+      <c r="C26">
+        <v>13221.79950745369</v>
+      </c>
+      <c r="D26">
+        <v>20946.69550745369</v>
+      </c>
+      <c r="E26">
+        <v>9524.445999999998</v>
+      </c>
+      <c r="F26">
+        <v>9531.395999999999</v>
+      </c>
+      <c r="G26">
+        <v>1806.5</v>
+      </c>
+      <c r="H26">
+        <v>39707.2</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>25.4</v>
+      </c>
+      <c r="K26">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L26">
+        <v>24</v>
+      </c>
+      <c r="M26">
+        <v>1750.9174452</v>
+      </c>
+      <c r="N26">
+        <v>-1726.9174452</v>
+      </c>
+      <c r="O26">
+        <v>-284.941378458</v>
+      </c>
+      <c r="P26">
+        <v>-1441.976066742</v>
+      </c>
+      <c r="Q26">
+        <v>-1440.576066742</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.07707005284537805</v>
+      </c>
+      <c r="T26">
+        <v>1.27737933469121</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>0.002261671451647263</v>
+      </c>
+      <c r="W26">
+        <v>0.1832845309543324</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.01370709970695305</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.1043055275915271</v>
+      </c>
+      <c r="C27">
+        <v>12440.14314930709</v>
+      </c>
+      <c r="D27">
+        <v>20562.18064930709</v>
+      </c>
+      <c r="E27">
+        <v>9921.587499999998</v>
+      </c>
+      <c r="F27">
+        <v>9928.537499999999</v>
+      </c>
+      <c r="G27">
+        <v>1806.5</v>
+      </c>
+      <c r="H27">
+        <v>39707.2</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>25.4</v>
+      </c>
+      <c r="K27">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L27">
+        <v>24</v>
+      </c>
+      <c r="M27">
+        <v>1823.87233875</v>
+      </c>
+      <c r="N27">
+        <v>-1799.87233875</v>
+      </c>
+      <c r="O27">
+        <v>-296.97893589375</v>
+      </c>
+      <c r="P27">
+        <v>-1502.89340285625</v>
+      </c>
+      <c r="Q27">
+        <v>-1501.49340285625</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.07797365354998309</v>
+      </c>
+      <c r="T27">
+        <v>1.294411059153759</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>0.002171204593581372</v>
+      </c>
+      <c r="W27">
+        <v>0.1833011497161591</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.01315881571867494</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.1060495275915271</v>
+      </c>
+      <c r="C28">
+        <v>11672.34926531</v>
+      </c>
+      <c r="D28">
+        <v>20191.52826531</v>
+      </c>
+      <c r="E28">
+        <v>10318.729</v>
+      </c>
+      <c r="F28">
+        <v>10325.679</v>
+      </c>
+      <c r="G28">
+        <v>1806.5</v>
+      </c>
+      <c r="H28">
+        <v>39707.2</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>25.4</v>
+      </c>
+      <c r="K28">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L28">
+        <v>24</v>
+      </c>
+      <c r="M28">
+        <v>1896.8272323</v>
+      </c>
+      <c r="N28">
+        <v>-1872.8272323</v>
+      </c>
+      <c r="O28">
+        <v>-309.0164933295</v>
+      </c>
+      <c r="P28">
+        <v>-1563.8107389705</v>
+      </c>
+      <c r="Q28">
+        <v>-1562.4107389705</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.07890167589525313</v>
+      </c>
+      <c r="T28">
+        <v>1.311903100493675</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>0.002087696724597474</v>
+      </c>
+      <c r="W28">
+        <v>0.1833164901116914</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.01265270742180291</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1077935275915271</v>
+      </c>
+      <c r="C29">
+        <v>10917.68147748385</v>
+      </c>
+      <c r="D29">
+        <v>19834.00197748385</v>
+      </c>
+      <c r="E29">
+        <v>10715.8705</v>
+      </c>
+      <c r="F29">
+        <v>10722.8205</v>
+      </c>
+      <c r="G29">
+        <v>1806.5</v>
+      </c>
+      <c r="H29">
+        <v>39707.2</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>25.4</v>
+      </c>
+      <c r="K29">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L29">
+        <v>24</v>
+      </c>
+      <c r="M29">
+        <v>1969.78212585</v>
+      </c>
+      <c r="N29">
+        <v>-1945.78212585</v>
+      </c>
+      <c r="O29">
+        <v>-321.05405076525</v>
+      </c>
+      <c r="P29">
+        <v>-1624.72807508475</v>
+      </c>
+      <c r="Q29">
+        <v>-1623.32807508475</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.07985512351025659</v>
+      </c>
+      <c r="T29">
+        <v>1.329874375842903</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>0.002010374623686455</v>
+      </c>
+      <c r="W29">
+        <v>0.1833306941816288</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.01218408862840281</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1095375275915271</v>
+      </c>
+      <c r="C30">
+        <v>10175.45465584973</v>
+      </c>
+      <c r="D30">
+        <v>19488.91665584973</v>
+      </c>
+      <c r="E30">
+        <v>11113.012</v>
+      </c>
+      <c r="F30">
+        <v>11119.962</v>
+      </c>
+      <c r="G30">
+        <v>1806.5</v>
+      </c>
+      <c r="H30">
+        <v>39707.2</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>25.4</v>
+      </c>
+      <c r="K30">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L30">
+        <v>24</v>
+      </c>
+      <c r="M30">
+        <v>2042.7370194</v>
+      </c>
+      <c r="N30">
+        <v>-2018.7370194</v>
+      </c>
+      <c r="O30">
+        <v>-333.091608201</v>
+      </c>
+      <c r="P30">
+        <v>-1685.645411199</v>
+      </c>
+      <c r="Q30">
+        <v>-1684.245411199</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.08083505578123239</v>
+      </c>
+      <c r="T30">
+        <v>1.348344853285166</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>0.001938575529983368</v>
+      </c>
+      <c r="W30">
+        <v>0.1833438836751421</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.01174894260595982</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1112815275915271</v>
+      </c>
+      <c r="C31">
+        <v>9445.030536433213</v>
+      </c>
+      <c r="D31">
+        <v>19155.63403643321</v>
+      </c>
+      <c r="E31">
+        <v>11510.1535</v>
+      </c>
+      <c r="F31">
+        <v>11517.1035</v>
+      </c>
+      <c r="G31">
+        <v>1806.5</v>
+      </c>
+      <c r="H31">
+        <v>39707.2</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>25.4</v>
+      </c>
+      <c r="K31">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L31">
+        <v>24</v>
+      </c>
+      <c r="M31">
+        <v>2115.69191295</v>
+      </c>
+      <c r="N31">
+        <v>-2091.69191295</v>
+      </c>
+      <c r="O31">
+        <v>-345.12916563675</v>
+      </c>
+      <c r="P31">
+        <v>-1746.56274731325</v>
+      </c>
+      <c r="Q31">
+        <v>-1745.16274731325</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.08184259177815115</v>
+      </c>
+      <c r="T31">
+        <v>1.367335625866647</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>0.001871728097914976</v>
+      </c>
+      <c r="W31">
+        <v>0.183356163548413</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.01134380665403012</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1130255275915271</v>
+      </c>
+      <c r="C32">
+        <v>8725.813781332088</v>
+      </c>
+      <c r="D32">
+        <v>18833.55878133209</v>
+      </c>
+      <c r="E32">
+        <v>11907.295</v>
+      </c>
+      <c r="F32">
+        <v>11914.245</v>
+      </c>
+      <c r="G32">
+        <v>1806.5</v>
+      </c>
+      <c r="H32">
+        <v>39707.2</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>25.4</v>
+      </c>
+      <c r="K32">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L32">
+        <v>24</v>
+      </c>
+      <c r="M32">
+        <v>2188.646806499999</v>
+      </c>
+      <c r="N32">
+        <v>-2164.646806499999</v>
+      </c>
+      <c r="O32">
+        <v>-357.1667230724999</v>
+      </c>
+      <c r="P32">
+        <v>-1807.480083427499</v>
+      </c>
+      <c r="Q32">
+        <v>-1806.080083427499</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.08287891451783902</v>
+      </c>
+      <c r="T32">
+        <v>1.386868991950456</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>0.001809337161317811</v>
+      </c>
+      <c r="W32">
+        <v>0.1833676247634659</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.01096567976556251</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1147695275915271</v>
+      </c>
+      <c r="C33">
+        <v>8017.248429678451</v>
+      </c>
+      <c r="D33">
+        <v>18522.13492967845</v>
+      </c>
+      <c r="E33">
+        <v>12304.4365</v>
+      </c>
+      <c r="F33">
+        <v>12311.3865</v>
+      </c>
+      <c r="G33">
+        <v>1806.5</v>
+      </c>
+      <c r="H33">
+        <v>39707.2</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>25.4</v>
+      </c>
+      <c r="K33">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L33">
+        <v>24</v>
+      </c>
+      <c r="M33">
+        <v>2261.60170005</v>
+      </c>
+      <c r="N33">
+        <v>-2237.60170005</v>
+      </c>
+      <c r="O33">
+        <v>-369.20428050825</v>
+      </c>
+      <c r="P33">
+        <v>-1868.39741954175</v>
+      </c>
+      <c r="Q33">
+        <v>-1866.99741954175</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.08394527559780771</v>
+      </c>
+      <c r="T33">
+        <v>1.406968542558434</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>0.001750971446436591</v>
+      </c>
+      <c r="W33">
+        <v>0.1833783465452896</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.01061194816022171</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1165135275915271</v>
+      </c>
+      <c r="C34">
+        <v>7318.814694985562</v>
+      </c>
+      <c r="D34">
+        <v>18220.84269498556</v>
+      </c>
+      <c r="E34">
+        <v>12701.578</v>
+      </c>
+      <c r="F34">
+        <v>12708.528</v>
+      </c>
+      <c r="G34">
+        <v>1806.5</v>
+      </c>
+      <c r="H34">
+        <v>39707.2</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>25.4</v>
+      </c>
+      <c r="K34">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L34">
+        <v>24</v>
+      </c>
+      <c r="M34">
+        <v>2334.5565936</v>
+      </c>
+      <c r="N34">
+        <v>-2310.5565936</v>
+      </c>
+      <c r="O34">
+        <v>-381.241837944</v>
+      </c>
+      <c r="P34">
+        <v>-1929.314755656</v>
+      </c>
+      <c r="Q34">
+        <v>-1927.914755656</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.08504300023895192</v>
+      </c>
+      <c r="T34">
+        <v>1.427659256419587</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>0.001696253588735447</v>
+      </c>
+      <c r="W34">
+        <v>0.1833883982157493</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.01028032478021479</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1182575275915271</v>
+      </c>
+      <c r="C35">
+        <v>6630.026070069283</v>
+      </c>
+      <c r="D35">
+        <v>17929.19557006928</v>
+      </c>
+      <c r="E35">
+        <v>13098.7195</v>
+      </c>
+      <c r="F35">
+        <v>13105.6695</v>
+      </c>
+      <c r="G35">
+        <v>1806.5</v>
+      </c>
+      <c r="H35">
+        <v>39707.2</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>25.4</v>
+      </c>
+      <c r="K35">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L35">
+        <v>24</v>
+      </c>
+      <c r="M35">
+        <v>2407.51148715</v>
+      </c>
+      <c r="N35">
+        <v>-2383.51148715</v>
+      </c>
+      <c r="O35">
+        <v>-393.2793953797499</v>
+      </c>
+      <c r="P35">
+        <v>-1990.23209177025</v>
+      </c>
+      <c r="Q35">
+        <v>-1988.832091770249</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.08617349277983181</v>
+      </c>
+      <c r="T35">
+        <v>1.448967603530327</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0.001644851964834373</v>
+      </c>
+      <c r="W35">
+        <v>0.1833978406940599</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.009968799786875038</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1200015275915271</v>
+      </c>
+      <c r="C36">
+        <v>5950.426705625197</v>
+      </c>
+      <c r="D36">
+        <v>17646.7377056252</v>
+      </c>
+      <c r="E36">
+        <v>13495.861</v>
+      </c>
+      <c r="F36">
+        <v>13502.811</v>
+      </c>
+      <c r="G36">
+        <v>1806.5</v>
+      </c>
+      <c r="H36">
+        <v>39707.2</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>25.4</v>
+      </c>
+      <c r="K36">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L36">
+        <v>24</v>
+      </c>
+      <c r="M36">
+        <v>2480.4663807</v>
+      </c>
+      <c r="N36">
+        <v>-2456.4663807</v>
+      </c>
+      <c r="O36">
+        <v>-405.3169528155</v>
+      </c>
+      <c r="P36">
+        <v>-2051.1494278845</v>
+      </c>
+      <c r="Q36">
+        <v>-2049.7494278845</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.08733824267043531</v>
+      </c>
+      <c r="T36">
+        <v>1.470921658129272</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0.001596473965868656</v>
+      </c>
+      <c r="W36">
+        <v>0.1834067277324699</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.009675599793143363</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1217455275915271</v>
+      </c>
+      <c r="C37">
+        <v>5279.589032751093</v>
+      </c>
+      <c r="D37">
+        <v>17373.04153275109</v>
+      </c>
+      <c r="E37">
+        <v>13893.0025</v>
+      </c>
+      <c r="F37">
+        <v>13899.9525</v>
+      </c>
+      <c r="G37">
+        <v>1806.5</v>
+      </c>
+      <c r="H37">
+        <v>39707.2</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>25.4</v>
+      </c>
+      <c r="K37">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L37">
+        <v>24</v>
+      </c>
+      <c r="M37">
+        <v>2553.42127425</v>
+      </c>
+      <c r="N37">
+        <v>-2529.42127425</v>
+      </c>
+      <c r="O37">
+        <v>-417.35451025125</v>
+      </c>
+      <c r="P37">
+        <v>-2112.06676399875</v>
+      </c>
+      <c r="Q37">
+        <v>-2110.66676399875</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.08853883101921126</v>
+      </c>
+      <c r="T37">
+        <v>1.493551222100491</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0.001550860423986694</v>
+      </c>
+      <c r="W37">
+        <v>0.1834151069401136</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.00939915408476788</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1234895275915271</v>
+      </c>
+      <c r="C38">
+        <v>4617.111603334692</v>
+      </c>
+      <c r="D38">
+        <v>17107.70560333469</v>
+      </c>
+      <c r="E38">
+        <v>14290.144</v>
+      </c>
+      <c r="F38">
+        <v>14297.094</v>
+      </c>
+      <c r="G38">
+        <v>1806.5</v>
+      </c>
+      <c r="H38">
+        <v>39707.2</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>25.4</v>
+      </c>
+      <c r="K38">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L38">
+        <v>24</v>
+      </c>
+      <c r="M38">
+        <v>2626.3761678</v>
+      </c>
+      <c r="N38">
+        <v>-2602.3761678</v>
+      </c>
+      <c r="O38">
+        <v>-429.392067687</v>
+      </c>
+      <c r="P38">
+        <v>-2172.984100113</v>
+      </c>
+      <c r="Q38">
+        <v>-2171.584100113</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.08977693775388641</v>
+      </c>
+      <c r="T38">
+        <v>1.516887959945811</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0.001507780967764842</v>
+      </c>
+      <c r="W38">
+        <v>0.1834230206362216</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.009138066471302109</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1252335275915271</v>
+      </c>
+      <c r="C39">
+        <v>3962.617125364957</v>
+      </c>
+      <c r="D39">
+        <v>16850.35262536495</v>
+      </c>
+      <c r="E39">
+        <v>14687.2855</v>
+      </c>
+      <c r="F39">
+        <v>14694.2355</v>
+      </c>
+      <c r="G39">
+        <v>1806.5</v>
+      </c>
+      <c r="H39">
+        <v>39707.2</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>25.4</v>
+      </c>
+      <c r="K39">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L39">
+        <v>24</v>
+      </c>
+      <c r="M39">
+        <v>2699.331061349999</v>
+      </c>
+      <c r="N39">
+        <v>-2675.331061349999</v>
+      </c>
+      <c r="O39">
+        <v>-441.4296251227499</v>
+      </c>
+      <c r="P39">
+        <v>-2233.901436227249</v>
+      </c>
+      <c r="Q39">
+        <v>-2232.501436227249</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.09105434946426556</v>
+      </c>
+      <c r="T39">
+        <v>1.540965546611618</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0.001467030130798225</v>
+      </c>
+      <c r="W39">
+        <v>0.1834305065649724</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.008891091701807463</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1269775275915271</v>
+      </c>
+      <c r="C40">
+        <v>3315.750672945474</v>
+      </c>
+      <c r="D40">
+        <v>16600.62767294547</v>
+      </c>
+      <c r="E40">
+        <v>15084.427</v>
+      </c>
+      <c r="F40">
+        <v>15091.377</v>
+      </c>
+      <c r="G40">
+        <v>1806.5</v>
+      </c>
+      <c r="H40">
+        <v>39707.2</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>25.4</v>
+      </c>
+      <c r="K40">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L40">
+        <v>24</v>
+      </c>
+      <c r="M40">
+        <v>2772.2859549</v>
+      </c>
+      <c r="N40">
+        <v>-2748.2859549</v>
+      </c>
+      <c r="O40">
+        <v>-453.4671825585</v>
+      </c>
+      <c r="P40">
+        <v>-2294.8187723415</v>
+      </c>
+      <c r="Q40">
+        <v>-2293.4187723415</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.09237296800401179</v>
+      </c>
+      <c r="T40">
+        <v>1.565819829621483</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0.001428424074724587</v>
+      </c>
+      <c r="W40">
+        <v>0.1834375984974731</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.008657115604391419</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1287215275915271</v>
+      </c>
+      <c r="C41">
+        <v>2676.178053150696</v>
+      </c>
+      <c r="D41">
+        <v>16358.1965531507</v>
+      </c>
+      <c r="E41">
+        <v>15481.5685</v>
+      </c>
+      <c r="F41">
+        <v>15488.5185</v>
+      </c>
+      <c r="G41">
+        <v>1806.5</v>
+      </c>
+      <c r="H41">
+        <v>39707.2</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>25.4</v>
+      </c>
+      <c r="K41">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L41">
+        <v>24</v>
+      </c>
+      <c r="M41">
+        <v>2845.24084845</v>
+      </c>
+      <c r="N41">
+        <v>-2821.24084845</v>
+      </c>
+      <c r="O41">
+        <v>-465.50473999425</v>
+      </c>
+      <c r="P41">
+        <v>-2355.73610845575</v>
+      </c>
+      <c r="Q41">
+        <v>-2354.33610845575</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.0937348199385038</v>
+      </c>
+      <c r="T41">
+        <v>1.591489007156261</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0.001391797816398316</v>
+      </c>
+      <c r="W41">
+        <v>0.1834443267411276</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.008435138281201904</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1304655275915271</v>
+      </c>
+      <c r="C42">
+        <v>2043.584313922473</v>
+      </c>
+      <c r="D42">
+        <v>16122.74431392247</v>
+      </c>
+      <c r="E42">
+        <v>15878.71</v>
+      </c>
+      <c r="F42">
+        <v>15885.66</v>
+      </c>
+      <c r="G42">
+        <v>1806.5</v>
+      </c>
+      <c r="H42">
+        <v>39707.2</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>25.4</v>
+      </c>
+      <c r="K42">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L42">
+        <v>24</v>
+      </c>
+      <c r="M42">
+        <v>2918.195742</v>
+      </c>
+      <c r="N42">
+        <v>-2894.195742</v>
+      </c>
+      <c r="O42">
+        <v>-477.54229743</v>
+      </c>
+      <c r="P42">
+        <v>-2416.65344457</v>
+      </c>
+      <c r="Q42">
+        <v>-2415.25344457</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.09514206693747886</v>
+      </c>
+      <c r="T42">
+        <v>1.618013823942199</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0.001357002870988358</v>
+      </c>
+      <c r="W42">
+        <v>0.1834507185725994</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.008224259824171853</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1322095275915271</v>
+      </c>
+      <c r="C43">
+        <v>1417.672378997946</v>
+      </c>
+      <c r="D43">
+        <v>15893.97387899794</v>
+      </c>
+      <c r="E43">
+        <v>16275.8515</v>
+      </c>
+      <c r="F43">
+        <v>16282.8015</v>
+      </c>
+      <c r="G43">
+        <v>1806.5</v>
+      </c>
+      <c r="H43">
+        <v>39707.2</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>25.4</v>
+      </c>
+      <c r="K43">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L43">
+        <v>24</v>
+      </c>
+      <c r="M43">
+        <v>2991.15063555</v>
+      </c>
+      <c r="N43">
+        <v>-2967.15063555</v>
+      </c>
+      <c r="O43">
+        <v>-489.57985486575</v>
+      </c>
+      <c r="P43">
+        <v>-2477.57078068425</v>
+      </c>
+      <c r="Q43">
+        <v>-2476.17078068425</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.09659701722455477</v>
+      </c>
+      <c r="T43">
+        <v>1.645437787059863</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.001323905239988641</v>
+      </c>
+      <c r="W43">
+        <v>0.1834567986074141</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.008023668121143301</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1339535275915271</v>
+      </c>
+      <c r="C44">
+        <v>798.161797428078</v>
+      </c>
+      <c r="D44">
+        <v>15671.60479742807</v>
+      </c>
+      <c r="E44">
+        <v>16672.99299999999</v>
+      </c>
+      <c r="F44">
+        <v>16679.943</v>
+      </c>
+      <c r="G44">
+        <v>1806.5</v>
+      </c>
+      <c r="H44">
+        <v>39707.2</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>25.4</v>
+      </c>
+      <c r="K44">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L44">
+        <v>24</v>
+      </c>
+      <c r="M44">
+        <v>3064.105529099999</v>
+      </c>
+      <c r="N44">
+        <v>-3040.105529099999</v>
+      </c>
+      <c r="O44">
+        <v>-501.6174123014999</v>
+      </c>
+      <c r="P44">
+        <v>-2538.4881167985</v>
+      </c>
+      <c r="Q44">
+        <v>-2537.088116798499</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.09810213821118502</v>
+      </c>
+      <c r="T44">
+        <v>1.673807404078137</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.001292383686655579</v>
+      </c>
+      <c r="W44">
+        <v>0.1834625891167614</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.007832628403973252</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1356975275915271</v>
+      </c>
+      <c r="C45">
+        <v>184.7875966189313</v>
+      </c>
+      <c r="D45">
+        <v>15455.37209661893</v>
+      </c>
+      <c r="E45">
+        <v>17070.1345</v>
+      </c>
+      <c r="F45">
+        <v>17077.0845</v>
+      </c>
+      <c r="G45">
+        <v>1806.5</v>
+      </c>
+      <c r="H45">
+        <v>39707.2</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>25.4</v>
+      </c>
+      <c r="K45">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L45">
+        <v>24</v>
+      </c>
+      <c r="M45">
+        <v>3137.06042265</v>
+      </c>
+      <c r="N45">
+        <v>-3113.06042265</v>
+      </c>
+      <c r="O45">
+        <v>-513.65496973725</v>
+      </c>
+      <c r="P45">
+        <v>-2599.40545291275</v>
+      </c>
+      <c r="Q45">
+        <v>-2598.00545291275</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.09966007046050404</v>
+      </c>
+      <c r="T45">
+        <v>1.703172446254946</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.001262328252082193</v>
+      </c>
+      <c r="W45">
+        <v>0.1834681103000925</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.007650474255043616</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1374415275915271</v>
+      </c>
+      <c r="C46">
+        <v>-422.7007709666104</v>
+      </c>
+      <c r="D46">
+        <v>15245.02522903339</v>
+      </c>
+      <c r="E46">
+        <v>17467.276</v>
+      </c>
+      <c r="F46">
+        <v>17474.226</v>
+      </c>
+      <c r="G46">
+        <v>1806.5</v>
+      </c>
+      <c r="H46">
+        <v>39707.2</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>25.4</v>
+      </c>
+      <c r="K46">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L46">
+        <v>24</v>
+      </c>
+      <c r="M46">
+        <v>3210.0153162</v>
+      </c>
+      <c r="N46">
+        <v>-3186.0153162</v>
+      </c>
+      <c r="O46">
+        <v>-525.6925271729999</v>
+      </c>
+      <c r="P46">
+        <v>-2660.322789027</v>
+      </c>
+      <c r="Q46">
+        <v>-2658.922789027</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1012736431472988</v>
+      </c>
+      <c r="T46">
+        <v>1.73358623993807</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.00123363897362578</v>
+      </c>
+      <c r="W46">
+        <v>0.1834733805205449</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.007476599840156251</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1391855275915271</v>
+      </c>
+      <c r="C47">
+        <v>-1024.540396250031</v>
+      </c>
+      <c r="D47">
+        <v>15040.32710374997</v>
+      </c>
+      <c r="E47">
+        <v>17864.4175</v>
+      </c>
+      <c r="F47">
+        <v>17871.3675</v>
+      </c>
+      <c r="G47">
+        <v>1806.5</v>
+      </c>
+      <c r="H47">
+        <v>39707.2</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>25.4</v>
+      </c>
+      <c r="K47">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L47">
+        <v>24</v>
+      </c>
+      <c r="M47">
+        <v>3282.970209749999</v>
+      </c>
+      <c r="N47">
+        <v>-3258.970209749999</v>
+      </c>
+      <c r="O47">
+        <v>-537.73008460875</v>
+      </c>
+      <c r="P47">
+        <v>-2721.240125141249</v>
+      </c>
+      <c r="Q47">
+        <v>-2719.840125141249</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1029458912045224</v>
+      </c>
+      <c r="T47">
+        <v>1.765105989755126</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.001206224774211874</v>
+      </c>
+      <c r="W47">
+        <v>0.1834784165089773</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.007310453177041709</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1409295275915271</v>
+      </c>
+      <c r="C48">
+        <v>-1620.955804991376</v>
+      </c>
+      <c r="D48">
+        <v>14841.05319500862</v>
+      </c>
+      <c r="E48">
+        <v>18261.559</v>
+      </c>
+      <c r="F48">
+        <v>18268.509</v>
+      </c>
+      <c r="G48">
+        <v>1806.5</v>
+      </c>
+      <c r="H48">
+        <v>39707.2</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>25.4</v>
+      </c>
+      <c r="K48">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L48">
+        <v>24</v>
+      </c>
+      <c r="M48">
+        <v>3355.9251033</v>
+      </c>
+      <c r="N48">
+        <v>-3331.9251033</v>
+      </c>
+      <c r="O48">
+        <v>-549.7676420445</v>
+      </c>
+      <c r="P48">
+        <v>-2782.1574612555</v>
+      </c>
+      <c r="Q48">
+        <v>-2780.757461255499</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1046800743749765</v>
+      </c>
+      <c r="T48">
+        <v>1.797793137713554</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.001180002496511615</v>
+      </c>
+      <c r="W48">
+        <v>0.1834832335413908</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.00715153028188853</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1426735275915271</v>
+      </c>
+      <c r="C49">
+        <v>-2212.159779303107</v>
+      </c>
+      <c r="D49">
+        <v>14646.99072069689</v>
+      </c>
+      <c r="E49">
+        <v>18658.7005</v>
+      </c>
+      <c r="F49">
+        <v>18665.6505</v>
+      </c>
+      <c r="G49">
+        <v>1806.5</v>
+      </c>
+      <c r="H49">
+        <v>39707.2</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>25.4</v>
+      </c>
+      <c r="K49">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L49">
+        <v>24</v>
+      </c>
+      <c r="M49">
+        <v>3428.87999685</v>
+      </c>
+      <c r="N49">
+        <v>-3404.87999685</v>
+      </c>
+      <c r="O49">
+        <v>-561.8051994802499</v>
+      </c>
+      <c r="P49">
+        <v>-2843.07479736975</v>
+      </c>
+      <c r="Q49">
+        <v>-2841.67479736975</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1064796984197874</v>
+      </c>
+      <c r="T49">
+        <v>1.831713762953433</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.001154896060415624</v>
+      </c>
+      <c r="W49">
+        <v>0.1834878455937017</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.00699937006312501</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1444175275915271</v>
+      </c>
+      <c r="C50">
+        <v>-2798.354115542959</v>
+      </c>
+      <c r="D50">
+        <v>14457.93788445704</v>
+      </c>
+      <c r="E50">
+        <v>19055.842</v>
+      </c>
+      <c r="F50">
+        <v>19062.792</v>
+      </c>
+      <c r="G50">
+        <v>1806.5</v>
+      </c>
+      <c r="H50">
+        <v>39707.2</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>25.4</v>
+      </c>
+      <c r="K50">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L50">
+        <v>24</v>
+      </c>
+      <c r="M50">
+        <v>3501.834890399999</v>
+      </c>
+      <c r="N50">
+        <v>-3477.834890399999</v>
+      </c>
+      <c r="O50">
+        <v>-573.842756916</v>
+      </c>
+      <c r="P50">
+        <v>-2903.992133484</v>
+      </c>
+      <c r="Q50">
+        <v>-2902.592133484</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1083485387740141</v>
+      </c>
+      <c r="T50">
+        <v>1.866939027625614</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.001130835725823631</v>
+      </c>
+      <c r="W50">
+        <v>0.1834922654771662</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.006853549853476526</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1461615275915271</v>
+      </c>
+      <c r="C51">
+        <v>-3379.730324260716</v>
+      </c>
+      <c r="D51">
+        <v>14273.70317573928</v>
+      </c>
+      <c r="E51">
+        <v>19452.98349999999</v>
+      </c>
+      <c r="F51">
+        <v>19459.9335</v>
+      </c>
+      <c r="G51">
+        <v>1806.5</v>
+      </c>
+      <c r="H51">
+        <v>39707.2</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>25.4</v>
+      </c>
+      <c r="K51">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L51">
+        <v>24</v>
+      </c>
+      <c r="M51">
+        <v>3574.789783949999</v>
+      </c>
+      <c r="N51">
+        <v>-3550.789783949999</v>
+      </c>
+      <c r="O51">
+        <v>-585.8803143517499</v>
+      </c>
+      <c r="P51">
+        <v>-2964.909469598249</v>
+      </c>
+      <c r="Q51">
+        <v>-2963.509469598249</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1102906669852692</v>
+      </c>
+      <c r="T51">
+        <v>1.903545675226116</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.001107757445704782</v>
+      </c>
+      <c r="W51">
+        <v>0.183496504957224</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.006713681489119883</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1479055275915271</v>
+      </c>
+      <c r="C52">
+        <v>-3956.470277302584</v>
+      </c>
+      <c r="D52">
+        <v>14094.10472269741</v>
+      </c>
+      <c r="E52">
+        <v>19850.125</v>
+      </c>
+      <c r="F52">
+        <v>19857.075</v>
+      </c>
+      <c r="G52">
+        <v>1806.5</v>
+      </c>
+      <c r="H52">
+        <v>39707.2</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>25.4</v>
+      </c>
+      <c r="K52">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L52">
+        <v>24</v>
+      </c>
+      <c r="M52">
+        <v>3647.744677499999</v>
+      </c>
+      <c r="N52">
+        <v>-3623.744677499999</v>
+      </c>
+      <c r="O52">
+        <v>-597.9178717875</v>
+      </c>
+      <c r="P52">
+        <v>-3025.8268057125</v>
+      </c>
+      <c r="Q52">
+        <v>-3024.4268057125</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1123104803249746</v>
+      </c>
+      <c r="T52">
+        <v>1.941616588730639</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.001085602296790686</v>
+      </c>
+      <c r="W52">
+        <v>0.1835005748580796</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.006579407859337527</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1496495275915271</v>
+      </c>
+      <c r="C53">
+        <v>-4528.746806669566</v>
+      </c>
+      <c r="D53">
+        <v>13918.96969333043</v>
+      </c>
+      <c r="E53">
+        <v>20247.2665</v>
+      </c>
+      <c r="F53">
+        <v>20254.2165</v>
+      </c>
+      <c r="G53">
+        <v>1806.5</v>
+      </c>
+      <c r="H53">
+        <v>39707.2</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>25.4</v>
+      </c>
+      <c r="K53">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L53">
+        <v>24</v>
+      </c>
+      <c r="M53">
+        <v>3720.69957105</v>
+      </c>
+      <c r="N53">
+        <v>-3696.69957105</v>
+      </c>
+      <c r="O53">
+        <v>-609.95542922325</v>
+      </c>
+      <c r="P53">
+        <v>-3086.744141826749</v>
+      </c>
+      <c r="Q53">
+        <v>-3085.344141826749</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1144127350254843</v>
+      </c>
+      <c r="T53">
+        <v>1.98124141707208</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.001064315977245771</v>
+      </c>
+      <c r="W53">
+        <v>0.18350448515498</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.006450399862095613</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1513935275915271</v>
+      </c>
+      <c r="C54">
+        <v>-5096.724259275019</v>
+      </c>
+      <c r="D54">
+        <v>13748.13374072498</v>
+      </c>
+      <c r="E54">
+        <v>20644.408</v>
+      </c>
+      <c r="F54">
+        <v>20651.358</v>
+      </c>
+      <c r="G54">
+        <v>1806.5</v>
+      </c>
+      <c r="H54">
+        <v>39707.2</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>25.4</v>
+      </c>
+      <c r="K54">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L54">
+        <v>24</v>
+      </c>
+      <c r="M54">
+        <v>3793.654464599999</v>
+      </c>
+      <c r="N54">
+        <v>-3769.654464599999</v>
+      </c>
+      <c r="O54">
+        <v>-621.9929866589999</v>
+      </c>
+      <c r="P54">
+        <v>-3147.661477940999</v>
+      </c>
+      <c r="Q54">
+        <v>-3146.261477940999</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1166025836718485</v>
+      </c>
+      <c r="T54">
+        <v>2.022517279927748</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.001043848362298737</v>
+      </c>
+      <c r="W54">
+        <v>0.1835082450558457</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.0063263537109014</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1531375275915271</v>
+      </c>
+      <c r="C55">
+        <v>-5660.559011344221</v>
+      </c>
+      <c r="D55">
+        <v>13581.44048865578</v>
+      </c>
+      <c r="E55">
+        <v>21041.5495</v>
+      </c>
+      <c r="F55">
+        <v>21048.4995</v>
+      </c>
+      <c r="G55">
+        <v>1806.5</v>
+      </c>
+      <c r="H55">
+        <v>39707.2</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>25.4</v>
+      </c>
+      <c r="K55">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L55">
+        <v>24</v>
+      </c>
+      <c r="M55">
+        <v>3866.609358149999</v>
+      </c>
+      <c r="N55">
+        <v>-3842.609358149999</v>
+      </c>
+      <c r="O55">
+        <v>-634.03054409475</v>
+      </c>
+      <c r="P55">
+        <v>-3208.578814055249</v>
+      </c>
+      <c r="Q55">
+        <v>-3207.178814055249</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1188856173669943</v>
+      </c>
+      <c r="T55">
+        <v>2.065549562479403</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.001024153110179893</v>
+      </c>
+      <c r="W55">
+        <v>0.18351186307366</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.006206988546544778</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1548815275915271</v>
+      </c>
+      <c r="C56">
+        <v>-6220.39994584029</v>
+      </c>
+      <c r="D56">
+        <v>13418.74105415971</v>
+      </c>
+      <c r="E56">
+        <v>21438.691</v>
+      </c>
+      <c r="F56">
+        <v>21445.641</v>
+      </c>
+      <c r="G56">
+        <v>1806.5</v>
+      </c>
+      <c r="H56">
+        <v>39707.2</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>25.4</v>
+      </c>
+      <c r="K56">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L56">
+        <v>24</v>
+      </c>
+      <c r="M56">
+        <v>3939.5642517</v>
+      </c>
+      <c r="N56">
+        <v>-3915.5642517</v>
+      </c>
+      <c r="O56">
+        <v>-646.0681015305</v>
+      </c>
+      <c r="P56">
+        <v>-3269.4961501695</v>
+      </c>
+      <c r="Q56">
+        <v>-3268.0961501695</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1212679133967116</v>
+      </c>
+      <c r="T56">
+        <v>2.110452813837651</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.001005187311843228</v>
+      </c>
+      <c r="W56">
+        <v>0.1835153470908144</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.006092044314201406</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1566255275915271</v>
+      </c>
+      <c r="C57">
+        <v>-6776.388895980361</v>
+      </c>
+      <c r="D57">
+        <v>13259.89360401964</v>
+      </c>
+      <c r="E57">
+        <v>21835.8325</v>
+      </c>
+      <c r="F57">
+        <v>21842.7825</v>
+      </c>
+      <c r="G57">
+        <v>1806.5</v>
+      </c>
+      <c r="H57">
+        <v>39707.2</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>25.4</v>
+      </c>
+      <c r="K57">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L57">
+        <v>24</v>
+      </c>
+      <c r="M57">
+        <v>4012.519145249999</v>
+      </c>
+      <c r="N57">
+        <v>-3988.519145249999</v>
+      </c>
+      <c r="O57">
+        <v>-658.10565896625</v>
+      </c>
+      <c r="P57">
+        <v>-3330.41348628375</v>
+      </c>
+      <c r="Q57">
+        <v>-3329.013486283749</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1237560892499718</v>
+      </c>
+      <c r="T57">
+        <v>2.157351765256266</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.0009869111789006237</v>
+      </c>
+      <c r="W57">
+        <v>0.183518704416436</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.005981279872125045</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1583695275915271</v>
+      </c>
+      <c r="C58">
+        <v>-7328.661057618845</v>
+      </c>
+      <c r="D58">
+        <v>13104.76294238115</v>
+      </c>
+      <c r="E58">
+        <v>22232.974</v>
+      </c>
+      <c r="F58">
+        <v>22239.924</v>
+      </c>
+      <c r="G58">
+        <v>1806.5</v>
+      </c>
+      <c r="H58">
+        <v>39707.2</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>25.4</v>
+      </c>
+      <c r="K58">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L58">
+        <v>24</v>
+      </c>
+      <c r="M58">
+        <v>4085.4740388</v>
+      </c>
+      <c r="N58">
+        <v>-4061.4740388</v>
+      </c>
+      <c r="O58">
+        <v>-670.143216402</v>
+      </c>
+      <c r="P58">
+        <v>-3391.330822398</v>
+      </c>
+      <c r="Q58">
+        <v>-3389.930822398</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.126357364005653</v>
+      </c>
+      <c r="T58">
+        <v>2.206382487193908</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.0009692877649916839</v>
+      </c>
+      <c r="W58">
+        <v>0.183521941837571</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.005874471302979911</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1601135275915271</v>
+      </c>
+      <c r="C59">
+        <v>-7877.345373018097</v>
+      </c>
+      <c r="D59">
+        <v>12953.2201269819</v>
+      </c>
+      <c r="E59">
+        <v>22630.1155</v>
+      </c>
+      <c r="F59">
+        <v>22637.0655</v>
+      </c>
+      <c r="G59">
+        <v>1806.5</v>
+      </c>
+      <c r="H59">
+        <v>39707.2</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>25.4</v>
+      </c>
+      <c r="K59">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L59">
+        <v>24</v>
+      </c>
+      <c r="M59">
+        <v>4158.42893235</v>
+      </c>
+      <c r="N59">
+        <v>-4134.42893235</v>
+      </c>
+      <c r="O59">
+        <v>-682.1807738377499</v>
+      </c>
+      <c r="P59">
+        <v>-3452.24815851225</v>
+      </c>
+      <c r="Q59">
+        <v>-3450.848158512249</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1290796282848542</v>
+      </c>
+      <c r="T59">
+        <v>2.257693707826324</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.0009522827164830579</v>
+      </c>
+      <c r="W59">
+        <v>0.1835250656649821</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.005771410402927613</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1618575275915271</v>
+      </c>
+      <c r="C60">
+        <v>-8422.564888295992</v>
+      </c>
+      <c r="D60">
+        <v>12805.142111704</v>
+      </c>
+      <c r="E60">
+        <v>23027.25699999999</v>
+      </c>
+      <c r="F60">
+        <v>23034.20699999999</v>
+      </c>
+      <c r="G60">
+        <v>1806.5</v>
+      </c>
+      <c r="H60">
+        <v>39707.2</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>25.4</v>
+      </c>
+      <c r="K60">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L60">
+        <v>24</v>
+      </c>
+      <c r="M60">
+        <v>4231.383825899999</v>
+      </c>
+      <c r="N60">
+        <v>-4207.383825899999</v>
+      </c>
+      <c r="O60">
+        <v>-694.2183312735</v>
+      </c>
+      <c r="P60">
+        <v>-3513.165494626499</v>
+      </c>
+      <c r="Q60">
+        <v>-3511.765494626499</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1319315241963983</v>
+      </c>
+      <c r="T60">
+        <v>2.311448319917427</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.000935864048957488</v>
+      </c>
+      <c r="W60">
+        <v>0.1835280817742065</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.00567190332701506</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1636015275915271</v>
+      </c>
+      <c r="C61">
+        <v>-8964.43708663315</v>
+      </c>
+      <c r="D61">
+        <v>12660.41141336685</v>
+      </c>
+      <c r="E61">
+        <v>23424.3985</v>
+      </c>
+      <c r="F61">
+        <v>23431.3485</v>
+      </c>
+      <c r="G61">
+        <v>1806.5</v>
+      </c>
+      <c r="H61">
+        <v>39707.2</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>25.4</v>
+      </c>
+      <c r="K61">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L61">
+        <v>24</v>
+      </c>
+      <c r="M61">
+        <v>4304.338719449999</v>
+      </c>
+      <c r="N61">
+        <v>-4280.338719449999</v>
+      </c>
+      <c r="O61">
+        <v>-706.2558887092499</v>
+      </c>
+      <c r="P61">
+        <v>-3574.082830740749</v>
+      </c>
+      <c r="Q61">
+        <v>-3572.682830740749</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1349225369816764</v>
+      </c>
+      <c r="T61">
+        <v>2.367825108208096</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.0009200019464327848</v>
+      </c>
+      <c r="W61">
+        <v>0.1835309956424403</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.005575769372319961</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1653455275915271</v>
+      </c>
+      <c r="C62">
+        <v>-9503.074199136116</v>
+      </c>
+      <c r="D62">
+        <v>12518.91580086388</v>
+      </c>
+      <c r="E62">
+        <v>23821.53999999999</v>
+      </c>
+      <c r="F62">
+        <v>23828.48999999999</v>
+      </c>
+      <c r="G62">
+        <v>1806.5</v>
+      </c>
+      <c r="H62">
+        <v>39707.2</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>25.4</v>
+      </c>
+      <c r="K62">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L62">
+        <v>24</v>
+      </c>
+      <c r="M62">
+        <v>4377.293612999999</v>
+      </c>
+      <c r="N62">
+        <v>-4353.293612999999</v>
+      </c>
+      <c r="O62">
+        <v>-718.2934461449998</v>
+      </c>
+      <c r="P62">
+        <v>-3635.000166854999</v>
+      </c>
+      <c r="Q62">
+        <v>-3633.600166854999</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1380631004062182</v>
+      </c>
+      <c r="T62">
+        <v>2.427020735913298</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.0009046685806589053</v>
+      </c>
+      <c r="W62">
+        <v>0.183533812381733</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.005482839882781199</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1670895275915271</v>
+      </c>
+      <c r="C63">
+        <v>-10038.58349508533</v>
+      </c>
+      <c r="D63">
+        <v>12380.54800491467</v>
+      </c>
+      <c r="E63">
+        <v>24218.6815</v>
+      </c>
+      <c r="F63">
+        <v>24225.6315</v>
+      </c>
+      <c r="G63">
+        <v>1806.5</v>
+      </c>
+      <c r="H63">
+        <v>39707.2</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>25.4</v>
+      </c>
+      <c r="K63">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L63">
+        <v>24</v>
+      </c>
+      <c r="M63">
+        <v>4450.24850655</v>
+      </c>
+      <c r="N63">
+        <v>-4426.24850655</v>
+      </c>
+      <c r="O63">
+        <v>-730.33100358075</v>
+      </c>
+      <c r="P63">
+        <v>-3695.91750296925</v>
+      </c>
+      <c r="Q63">
+        <v>-3694.51750296925</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1413647183653521</v>
+      </c>
+      <c r="T63">
+        <v>2.489252036834152</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.000889837948189087</v>
+      </c>
+      <c r="W63">
+        <v>0.1835365367689177</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.00539295726175204</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1688335275915271</v>
+      </c>
+      <c r="C64">
+        <v>-10571.06755314532</v>
+      </c>
+      <c r="D64">
+        <v>12245.20544685468</v>
+      </c>
+      <c r="E64">
+        <v>24615.823</v>
+      </c>
+      <c r="F64">
+        <v>24622.773</v>
+      </c>
+      <c r="G64">
+        <v>1806.5</v>
+      </c>
+      <c r="H64">
+        <v>39707.2</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>25.4</v>
+      </c>
+      <c r="K64">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L64">
+        <v>24</v>
+      </c>
+      <c r="M64">
+        <v>4523.203400099999</v>
+      </c>
+      <c r="N64">
+        <v>-4499.203400099999</v>
+      </c>
+      <c r="O64">
+        <v>-742.3685610164999</v>
+      </c>
+      <c r="P64">
+        <v>-3756.834839083499</v>
+      </c>
+      <c r="Q64">
+        <v>-3755.434839083499</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1448401056907561</v>
+      </c>
+      <c r="T64">
+        <v>2.554758669382419</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.0008754857232182953</v>
+      </c>
+      <c r="W64">
+        <v>0.1835391732726448</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.005305974080110909</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1705775275915271</v>
+      </c>
+      <c r="C65">
+        <v>-11100.6245149783</v>
+      </c>
+      <c r="D65">
+        <v>12112.78998502169</v>
+      </c>
+      <c r="E65">
+        <v>25012.96449999999</v>
+      </c>
+      <c r="F65">
+        <v>25019.9145</v>
+      </c>
+      <c r="G65">
+        <v>1806.5</v>
+      </c>
+      <c r="H65">
+        <v>39707.2</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>25.4</v>
+      </c>
+      <c r="K65">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L65">
+        <v>24</v>
+      </c>
+      <c r="M65">
+        <v>4596.158293649999</v>
+      </c>
+      <c r="N65">
+        <v>-4572.158293649999</v>
+      </c>
+      <c r="O65">
+        <v>-754.4061184522499</v>
+      </c>
+      <c r="P65">
+        <v>-3817.752175197749</v>
+      </c>
+      <c r="Q65">
+        <v>-3816.352175197749</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1485033517905062</v>
+      </c>
+      <c r="T65">
+        <v>2.62380620098735</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.0008615891244370525</v>
+      </c>
+      <c r="W65">
+        <v>0.1835417260778409</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.005221752269315427</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1723215275915271</v>
+      </c>
+      <c r="C66">
+        <v>-11627.34832257886</v>
+      </c>
+      <c r="D66">
+        <v>11983.20767742113</v>
+      </c>
+      <c r="E66">
+        <v>25410.106</v>
+      </c>
+      <c r="F66">
+        <v>25417.056</v>
+      </c>
+      <c r="G66">
+        <v>1806.5</v>
+      </c>
+      <c r="H66">
+        <v>39707.2</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>25.4</v>
+      </c>
+      <c r="K66">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L66">
+        <v>24</v>
+      </c>
+      <c r="M66">
+        <v>4669.1131872</v>
+      </c>
+      <c r="N66">
+        <v>-4645.1131872</v>
+      </c>
+      <c r="O66">
+        <v>-766.443675888</v>
+      </c>
+      <c r="P66">
+        <v>-3878.669511311999</v>
+      </c>
+      <c r="Q66">
+        <v>-3877.269511311999</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1523701115624648</v>
+      </c>
+      <c r="T66">
+        <v>2.696689706570332</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.0008481267943677236</v>
+      </c>
+      <c r="W66">
+        <v>0.1835441991078746</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.005140162390107395</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1740655275915271</v>
+      </c>
+      <c r="C67">
+        <v>-12151.32894053582</v>
+      </c>
+      <c r="D67">
+        <v>11856.36855946418</v>
+      </c>
+      <c r="E67">
+        <v>25807.2475</v>
+      </c>
+      <c r="F67">
+        <v>25814.1975</v>
+      </c>
+      <c r="G67">
+        <v>1806.5</v>
+      </c>
+      <c r="H67">
+        <v>39707.2</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>25.4</v>
+      </c>
+      <c r="K67">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L67">
+        <v>24</v>
+      </c>
+      <c r="M67">
+        <v>4742.068080749999</v>
+      </c>
+      <c r="N67">
+        <v>-4718.068080749999</v>
+      </c>
+      <c r="O67">
+        <v>-778.48123332375</v>
+      </c>
+      <c r="P67">
+        <v>-3939.586847426249</v>
+      </c>
+      <c r="Q67">
+        <v>-3938.186847426249</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.156457829035678</v>
+      </c>
+      <c r="T67">
+        <v>2.773737983900912</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.0008350786898389894</v>
+      </c>
+      <c r="W67">
+        <v>0.1835465960446766</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.005061082968721098</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1758095275915271</v>
+      </c>
+      <c r="C68">
+        <v>-12672.65256432654</v>
+      </c>
+      <c r="D68">
+        <v>11732.18643567346</v>
+      </c>
+      <c r="E68">
+        <v>26204.389</v>
+      </c>
+      <c r="F68">
+        <v>26211.339</v>
+      </c>
+      <c r="G68">
+        <v>1806.5</v>
+      </c>
+      <c r="H68">
+        <v>39707.2</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>25.4</v>
+      </c>
+      <c r="K68">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L68">
+        <v>24</v>
+      </c>
+      <c r="M68">
+        <v>4815.022974299999</v>
+      </c>
+      <c r="N68">
+        <v>-4791.022974299999</v>
+      </c>
+      <c r="O68">
+        <v>-790.5187907594999</v>
+      </c>
+      <c r="P68">
+        <v>-4000.504183540499</v>
+      </c>
+      <c r="Q68">
+        <v>-3999.104183540499</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1607860004779039</v>
+      </c>
+      <c r="T68">
+        <v>2.855318512839175</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.0008224259824171866</v>
+      </c>
+      <c r="W68">
+        <v>0.18354892034703</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.004984399893437463</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1775535275915271</v>
+      </c>
+      <c r="C69">
+        <v>-13191.40181565695</v>
+      </c>
+      <c r="D69">
+        <v>11610.57868434305</v>
+      </c>
+      <c r="E69">
+        <v>26601.5305</v>
+      </c>
+      <c r="F69">
+        <v>26608.4805</v>
+      </c>
+      <c r="G69">
+        <v>1806.5</v>
+      </c>
+      <c r="H69">
+        <v>39707.2</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>25.4</v>
+      </c>
+      <c r="K69">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L69">
+        <v>24</v>
+      </c>
+      <c r="M69">
+        <v>4887.97786785</v>
+      </c>
+      <c r="N69">
+        <v>-4863.97786785</v>
+      </c>
+      <c r="O69">
+        <v>-802.5563481952499</v>
+      </c>
+      <c r="P69">
+        <v>-4061.42151965475</v>
+      </c>
+      <c r="Q69">
+        <v>-4060.02151965475</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1653764853408707</v>
+      </c>
+      <c r="T69">
+        <v>2.941843316258544</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.0008101509677542433</v>
+      </c>
+      <c r="W69">
+        <v>0.1835511752672235</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.004910005865177203</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1792975275915271</v>
+      </c>
+      <c r="C70">
+        <v>-13707.65592577766</v>
+      </c>
+      <c r="D70">
+        <v>11491.46607422234</v>
+      </c>
+      <c r="E70">
+        <v>26998.672</v>
+      </c>
+      <c r="F70">
+        <v>27005.622</v>
+      </c>
+      <c r="G70">
+        <v>1806.5</v>
+      </c>
+      <c r="H70">
+        <v>39707.2</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>25.4</v>
+      </c>
+      <c r="K70">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L70">
+        <v>24</v>
+      </c>
+      <c r="M70">
+        <v>4960.9327614</v>
+      </c>
+      <c r="N70">
+        <v>-4936.9327614</v>
+      </c>
+      <c r="O70">
+        <v>-814.5939056310001</v>
+      </c>
+      <c r="P70">
+        <v>-4122.338855769</v>
+      </c>
+      <c r="Q70">
+        <v>-4120.938855769001</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1702538755077729</v>
+      </c>
+      <c r="T70">
+        <v>3.033775919891623</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.0007982369829343279</v>
+      </c>
+      <c r="W70">
+        <v>0.183553363866235</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.004837799896571737</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1810415275915271</v>
+      </c>
+      <c r="C71">
+        <v>-14221.49090763087</v>
+      </c>
+      <c r="D71">
+        <v>11374.77259236913</v>
+      </c>
+      <c r="E71">
+        <v>27395.8135</v>
+      </c>
+      <c r="F71">
+        <v>27402.7635</v>
+      </c>
+      <c r="G71">
+        <v>1806.5</v>
+      </c>
+      <c r="H71">
+        <v>39707.2</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>25.4</v>
+      </c>
+      <c r="K71">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L71">
+        <v>24</v>
+      </c>
+      <c r="M71">
+        <v>5033.887654949999</v>
+      </c>
+      <c r="N71">
+        <v>-5009.887654949999</v>
+      </c>
+      <c r="O71">
+        <v>-826.6314630667499</v>
+      </c>
+      <c r="P71">
+        <v>-4183.256191883249</v>
+      </c>
+      <c r="Q71">
+        <v>-4181.856191883249</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1754459360080236</v>
+      </c>
+      <c r="T71">
+        <v>3.131639659242966</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.0007866683310077437</v>
+      </c>
+      <c r="W71">
+        <v>0.1835554890275939</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.00476768685459239</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1827855275915271</v>
+      </c>
+      <c r="C72">
+        <v>-14732.97971761398</v>
+      </c>
+      <c r="D72">
+        <v>11260.42528238602</v>
+      </c>
+      <c r="E72">
+        <v>27792.955</v>
+      </c>
+      <c r="F72">
+        <v>27799.905</v>
+      </c>
+      <c r="G72">
+        <v>1806.5</v>
+      </c>
+      <c r="H72">
+        <v>39707.2</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>25.4</v>
+      </c>
+      <c r="K72">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L72">
+        <v>24</v>
+      </c>
+      <c r="M72">
+        <v>5106.8425485</v>
+      </c>
+      <c r="N72">
+        <v>-5082.8425485</v>
+      </c>
+      <c r="O72">
+        <v>-838.6690205025</v>
+      </c>
+      <c r="P72">
+        <v>-4244.1735279975</v>
+      </c>
+      <c r="Q72">
+        <v>-4242.7735279975</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1809841338749577</v>
+      </c>
+      <c r="T72">
+        <v>3.236027647884399</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.0007754302119933472</v>
+      </c>
+      <c r="W72">
+        <v>0.1835575534700568</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.004699577042383885</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1845295275915271</v>
+      </c>
+      <c r="C73">
+        <v>-15242.19240768337</v>
+      </c>
+      <c r="D73">
+        <v>11148.35409231662</v>
+      </c>
+      <c r="E73">
+        <v>28190.09649999999</v>
+      </c>
+      <c r="F73">
+        <v>28197.04649999999</v>
+      </c>
+      <c r="G73">
+        <v>1806.5</v>
+      </c>
+      <c r="H73">
+        <v>39707.2</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>25.4</v>
+      </c>
+      <c r="K73">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L73">
+        <v>24</v>
+      </c>
+      <c r="M73">
+        <v>5179.797442049999</v>
+      </c>
+      <c r="N73">
+        <v>-5155.797442049999</v>
+      </c>
+      <c r="O73">
+        <v>-850.7065779382498</v>
+      </c>
+      <c r="P73">
+        <v>-4305.090864111748</v>
+      </c>
+      <c r="Q73">
+        <v>-4303.690864111749</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.18690427642237</v>
+      </c>
+      <c r="T73">
+        <v>3.347614808156273</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.0007645086597117509</v>
+      </c>
+      <c r="W73">
+        <v>0.183559559759211</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.004633385816434799</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1862735275915271</v>
+      </c>
+      <c r="C74">
+        <v>-15749.19626846468</v>
+      </c>
+      <c r="D74">
+        <v>11038.49173153532</v>
+      </c>
+      <c r="E74">
+        <v>28587.23799999999</v>
+      </c>
+      <c r="F74">
+        <v>28594.18799999999</v>
+      </c>
+      <c r="G74">
+        <v>1806.5</v>
+      </c>
+      <c r="H74">
+        <v>39707.2</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>25.4</v>
+      </c>
+      <c r="K74">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L74">
+        <v>24</v>
+      </c>
+      <c r="M74">
+        <v>5252.752335599999</v>
+      </c>
+      <c r="N74">
+        <v>-5228.752335599999</v>
+      </c>
+      <c r="O74">
+        <v>-862.7441353739999</v>
+      </c>
+      <c r="P74">
+        <v>-4366.008200226</v>
+      </c>
+      <c r="Q74">
+        <v>-4364.608200226</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1932472862945975</v>
+      </c>
+      <c r="T74">
+        <v>3.46717247987614</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.000753890483882421</v>
+      </c>
+      <c r="W74">
+        <v>0.1835615103181108</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.004569033235651054</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1880175275915271</v>
+      </c>
+      <c r="C75">
+        <v>-16254.0559639838</v>
+      </c>
+      <c r="D75">
+        <v>10930.77353601619</v>
+      </c>
+      <c r="E75">
+        <v>28984.3795</v>
+      </c>
+      <c r="F75">
+        <v>28991.3295</v>
+      </c>
+      <c r="G75">
+        <v>1806.5</v>
+      </c>
+      <c r="H75">
+        <v>39707.2</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>25.4</v>
+      </c>
+      <c r="K75">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L75">
+        <v>24</v>
+      </c>
+      <c r="M75">
+        <v>5325.707229149999</v>
+      </c>
+      <c r="N75">
+        <v>-5301.707229149999</v>
+      </c>
+      <c r="O75">
+        <v>-874.7816928097499</v>
+      </c>
+      <c r="P75">
+        <v>-4426.925536340249</v>
+      </c>
+      <c r="Q75">
+        <v>-4425.525536340249</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.200060148749953</v>
+      </c>
+      <c r="T75">
+        <v>3.595586275427109</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.0007435632169799221</v>
+      </c>
+      <c r="W75">
+        <v>0.1835634074370408</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.004506443739272226</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1897615275915271</v>
+      </c>
+      <c r="C76">
+        <v>-16756.83365858568</v>
+      </c>
+      <c r="D76">
+        <v>10825.13734141431</v>
+      </c>
+      <c r="E76">
+        <v>29381.52099999999</v>
+      </c>
+      <c r="F76">
+        <v>29388.47099999999</v>
+      </c>
+      <c r="G76">
+        <v>1806.5</v>
+      </c>
+      <c r="H76">
+        <v>39707.2</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>25.4</v>
+      </c>
+      <c r="K76">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L76">
+        <v>24</v>
+      </c>
+      <c r="M76">
+        <v>5398.662122699999</v>
+      </c>
+      <c r="N76">
+        <v>-5374.662122699999</v>
+      </c>
+      <c r="O76">
+        <v>-886.8192502454998</v>
+      </c>
+      <c r="P76">
+        <v>-4487.842872454499</v>
+      </c>
+      <c r="Q76">
+        <v>-4486.4428724545</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.2073970775480281</v>
+      </c>
+      <c r="T76">
+        <v>3.733878055251228</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.0007335150653991124</v>
+      </c>
+      <c r="W76">
+        <v>0.1835652532824862</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.004445545850903732</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1915055275915271</v>
+      </c>
+      <c r="C77">
+        <v>-17257.58913656417</v>
+      </c>
+      <c r="D77">
+        <v>10721.52336343583</v>
+      </c>
+      <c r="E77">
+        <v>29778.66249999999</v>
+      </c>
+      <c r="F77">
+        <v>29785.6125</v>
+      </c>
+      <c r="G77">
+        <v>1806.5</v>
+      </c>
+      <c r="H77">
+        <v>39707.2</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>25.4</v>
+      </c>
+      <c r="K77">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L77">
+        <v>24</v>
+      </c>
+      <c r="M77">
+        <v>5471.617016249999</v>
+      </c>
+      <c r="N77">
+        <v>-5447.617016249999</v>
+      </c>
+      <c r="O77">
+        <v>-898.85680768125</v>
+      </c>
+      <c r="P77">
+        <v>-4548.760208568749</v>
+      </c>
+      <c r="Q77">
+        <v>-4547.36020856875</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.2153209606499492</v>
+      </c>
+      <c r="T77">
+        <v>3.883233177461277</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.000723734864527124</v>
+      </c>
+      <c r="W77">
+        <v>0.1835670499053864</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.004386271906224981</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1932495275915271</v>
+      </c>
+      <c r="C78">
+        <v>-17756.37991498664</v>
+      </c>
+      <c r="D78">
+        <v>10619.87408501336</v>
+      </c>
+      <c r="E78">
+        <v>30175.804</v>
+      </c>
+      <c r="F78">
+        <v>30182.754</v>
+      </c>
+      <c r="G78">
+        <v>1806.5</v>
+      </c>
+      <c r="H78">
+        <v>39707.2</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>25.4</v>
+      </c>
+      <c r="K78">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L78">
+        <v>24</v>
+      </c>
+      <c r="M78">
+        <v>5544.5719098</v>
+      </c>
+      <c r="N78">
+        <v>-5520.5719098</v>
+      </c>
+      <c r="O78">
+        <v>-910.894365117</v>
+      </c>
+      <c r="P78">
+        <v>-4609.677544683</v>
+      </c>
+      <c r="Q78">
+        <v>-4608.277544683</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2239051673436971</v>
+      </c>
+      <c r="T78">
+        <v>4.045034559855496</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.0007142120373622934</v>
+      </c>
+      <c r="W78">
+        <v>0.1835687992487365</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.004328557802195765</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1949935275915271</v>
+      </c>
+      <c r="C79">
+        <v>-18253.26135016092</v>
+      </c>
+      <c r="D79">
+        <v>10520.13414983908</v>
+      </c>
+      <c r="E79">
+        <v>30572.94549999999</v>
+      </c>
+      <c r="F79">
+        <v>30579.8955</v>
+      </c>
+      <c r="G79">
+        <v>1806.5</v>
+      </c>
+      <c r="H79">
+        <v>39707.2</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>25.4</v>
+      </c>
+      <c r="K79">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L79">
+        <v>24</v>
+      </c>
+      <c r="M79">
+        <v>5617.526803349999</v>
+      </c>
+      <c r="N79">
+        <v>-5593.526803349999</v>
+      </c>
+      <c r="O79">
+        <v>-922.9319225527498</v>
+      </c>
+      <c r="P79">
+        <v>-4670.594880797249</v>
+      </c>
+      <c r="Q79">
+        <v>-4669.194880797249</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2332358267934231</v>
+      </c>
+      <c r="T79">
+        <v>4.220905627675302</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.0007049365563575886</v>
+      </c>
+      <c r="W79">
+        <v>0.1835705031545971</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.004272342765803572</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1967375275915271</v>
+      </c>
+      <c r="C80">
+        <v>-18748.28673815853</v>
+      </c>
+      <c r="D80">
+        <v>10422.25026184146</v>
+      </c>
+      <c r="E80">
+        <v>30970.087</v>
+      </c>
+      <c r="F80">
+        <v>30977.037</v>
+      </c>
+      <c r="G80">
+        <v>1806.5</v>
+      </c>
+      <c r="H80">
+        <v>39707.2</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>25.4</v>
+      </c>
+      <c r="K80">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L80">
+        <v>24</v>
+      </c>
+      <c r="M80">
+        <v>5690.481696899999</v>
+      </c>
+      <c r="N80">
+        <v>-5666.481696899999</v>
+      </c>
+      <c r="O80">
+        <v>-934.9694799885</v>
+      </c>
+      <c r="P80">
+        <v>-4731.512216911499</v>
+      </c>
+      <c r="Q80">
+        <v>-4730.1122169115</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.243414728011306</v>
+      </c>
+      <c r="T80">
+        <v>4.412764974387816</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.0006958989081991578</v>
+      </c>
+      <c r="W80">
+        <v>0.1835721633705638</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.004217569140601007</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1984815275915271</v>
+      </c>
+      <c r="C81">
+        <v>-19241.50740977775</v>
+      </c>
+      <c r="D81">
+        <v>10326.17109022225</v>
+      </c>
+      <c r="E81">
+        <v>31367.2285</v>
+      </c>
+      <c r="F81">
+        <v>31374.1785</v>
+      </c>
+      <c r="G81">
+        <v>1806.5</v>
+      </c>
+      <c r="H81">
+        <v>39707.2</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>25.4</v>
+      </c>
+      <c r="K81">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L81">
+        <v>24</v>
+      </c>
+      <c r="M81">
+        <v>5763.43659045</v>
+      </c>
+      <c r="N81">
+        <v>-5739.43659045</v>
+      </c>
+      <c r="O81">
+        <v>-947.00703742425</v>
+      </c>
+      <c r="P81">
+        <v>-4792.42955302575</v>
+      </c>
+      <c r="Q81">
+        <v>-4791.02955302575</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2545630483927968</v>
+      </c>
+      <c r="T81">
+        <v>4.622896639834855</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.0006870900612599278</v>
+      </c>
+      <c r="W81">
+        <v>0.1835737815557466</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.004164182189454135</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.2002255275915271</v>
+      </c>
+      <c r="C82">
+        <v>-19732.97282030204</v>
+      </c>
+      <c r="D82">
+        <v>10231.84717969795</v>
+      </c>
+      <c r="E82">
+        <v>31764.37</v>
+      </c>
+      <c r="F82">
+        <v>31771.32</v>
+      </c>
+      <c r="G82">
+        <v>1806.5</v>
+      </c>
+      <c r="H82">
+        <v>39707.2</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>25.4</v>
+      </c>
+      <c r="K82">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L82">
+        <v>24</v>
+      </c>
+      <c r="M82">
+        <v>5836.391484</v>
+      </c>
+      <c r="N82">
+        <v>-5812.391484</v>
+      </c>
+      <c r="O82">
+        <v>-959.04459486</v>
+      </c>
+      <c r="P82">
+        <v>-4853.34688914</v>
+      </c>
+      <c r="Q82">
+        <v>-4851.94688914</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2668262008124365</v>
+      </c>
+      <c r="T82">
+        <v>4.854041471826597</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.0006785014354941788</v>
+      </c>
+      <c r="W82">
+        <v>0.1835753592862997</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.004112129912085982</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.2019695275915271</v>
+      </c>
+      <c r="C83">
+        <v>-20222.73063438377</v>
+      </c>
+      <c r="D83">
+        <v>10139.23086561623</v>
+      </c>
+      <c r="E83">
+        <v>32161.5115</v>
+      </c>
+      <c r="F83">
+        <v>32168.4615</v>
+      </c>
+      <c r="G83">
+        <v>1806.5</v>
+      </c>
+      <c r="H83">
+        <v>39707.2</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>25.4</v>
+      </c>
+      <c r="K83">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L83">
+        <v>24</v>
+      </c>
+      <c r="M83">
+        <v>5909.346377549999</v>
+      </c>
+      <c r="N83">
+        <v>-5885.346377549999</v>
+      </c>
+      <c r="O83">
+        <v>-971.08215229575</v>
+      </c>
+      <c r="P83">
+        <v>-4914.264225254249</v>
+      </c>
+      <c r="Q83">
+        <v>-4912.86422525425</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2803802113815121</v>
+      </c>
+      <c r="T83">
+        <v>5.109517338764839</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.0006701248745621519</v>
+      </c>
+      <c r="W83">
+        <v>0.1835768980605429</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.004061362876134234</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2037135275915271</v>
+      </c>
+      <c r="C84">
+        <v>-20710.826806359</v>
+      </c>
+      <c r="D84">
+        <v>10048.276193641</v>
+      </c>
+      <c r="E84">
+        <v>32558.653</v>
+      </c>
+      <c r="F84">
+        <v>32565.603</v>
+      </c>
+      <c r="G84">
+        <v>1806.5</v>
+      </c>
+      <c r="H84">
+        <v>39707.2</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>25.4</v>
+      </c>
+      <c r="K84">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L84">
+        <v>24</v>
+      </c>
+      <c r="M84">
+        <v>5982.3012711</v>
+      </c>
+      <c r="N84">
+        <v>-5958.3012711</v>
+      </c>
+      <c r="O84">
+        <v>-983.1197097315001</v>
+      </c>
+      <c r="P84">
+        <v>-4975.1815613685</v>
+      </c>
+      <c r="Q84">
+        <v>-4973.781561368501</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2954402231249296</v>
+      </c>
+      <c r="T84">
+        <v>5.393379413140664</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.0006619526199943207</v>
+      </c>
+      <c r="W84">
+        <v>0.183578399303707</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.004011834060571595</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2054575275915271</v>
+      </c>
+      <c r="C85">
+        <v>-21197.30565627811</v>
+      </c>
+      <c r="D85">
+        <v>9958.938843721891</v>
+      </c>
+      <c r="E85">
+        <v>32955.7945</v>
+      </c>
+      <c r="F85">
+        <v>32962.7445</v>
+      </c>
+      <c r="G85">
+        <v>1806.5</v>
+      </c>
+      <c r="H85">
+        <v>39707.2</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>25.4</v>
+      </c>
+      <c r="K85">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L85">
+        <v>24</v>
+      </c>
+      <c r="M85">
+        <v>6055.25616465</v>
+      </c>
+      <c r="N85">
+        <v>-6031.25616465</v>
+      </c>
+      <c r="O85">
+        <v>-995.15726716725</v>
+      </c>
+      <c r="P85">
+        <v>-5036.09889748275</v>
+      </c>
+      <c r="Q85">
+        <v>-5034.69889748275</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.3122720009558078</v>
+      </c>
+      <c r="T85">
+        <v>5.710637025678351</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.0006539772872233048</v>
+      </c>
+      <c r="W85">
+        <v>0.1835798643723371</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.003963498710444324</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2072015275915271</v>
+      </c>
+      <c r="C86">
+        <v>-21682.20994191611</v>
+      </c>
+      <c r="D86">
+        <v>9871.176058083878</v>
+      </c>
+      <c r="E86">
+        <v>33352.93599999999</v>
+      </c>
+      <c r="F86">
+        <v>33359.88599999999</v>
+      </c>
+      <c r="G86">
+        <v>1806.5</v>
+      </c>
+      <c r="H86">
+        <v>39707.2</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>25.4</v>
+      </c>
+      <c r="K86">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L86">
+        <v>24</v>
+      </c>
+      <c r="M86">
+        <v>6128.211058199999</v>
+      </c>
+      <c r="N86">
+        <v>-6104.211058199999</v>
+      </c>
+      <c r="O86">
+        <v>-1007.194824603</v>
+      </c>
+      <c r="P86">
+        <v>-5097.016233596999</v>
+      </c>
+      <c r="Q86">
+        <v>-5095.616233596999</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.3312077510155456</v>
+      </c>
+      <c r="T86">
+        <v>6.067551839783245</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.0006461918433277895</v>
+      </c>
+      <c r="W86">
+        <v>0.1835812945583807</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.00391631420198657</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2089455275915271</v>
+      </c>
+      <c r="C87">
+        <v>-22165.58092700892</v>
+      </c>
+      <c r="D87">
+        <v>9784.946572991075</v>
+      </c>
+      <c r="E87">
+        <v>33750.0775</v>
+      </c>
+      <c r="F87">
+        <v>33757.0275</v>
+      </c>
+      <c r="G87">
+        <v>1806.5</v>
+      </c>
+      <c r="H87">
+        <v>39707.2</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>25.4</v>
+      </c>
+      <c r="K87">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L87">
+        <v>24</v>
+      </c>
+      <c r="M87">
+        <v>6201.165951749999</v>
+      </c>
+      <c r="N87">
+        <v>-6177.165951749999</v>
+      </c>
+      <c r="O87">
+        <v>-1019.23238203875</v>
+      </c>
+      <c r="P87">
+        <v>-5157.933569711249</v>
+      </c>
+      <c r="Q87">
+        <v>-5156.53356971125</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3526682677499154</v>
+      </c>
+      <c r="T87">
+        <v>6.472055295768795</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.0006385895863474624</v>
+      </c>
+      <c r="W87">
+        <v>0.183582691092988</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.003870239917257323</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2106895275915271</v>
+      </c>
+      <c r="C88">
+        <v>-22647.45844594387</v>
+      </c>
+      <c r="D88">
+        <v>9700.210554056126</v>
+      </c>
+      <c r="E88">
+        <v>34147.219</v>
+      </c>
+      <c r="F88">
+        <v>34154.16899999999</v>
+      </c>
+      <c r="G88">
+        <v>1806.5</v>
+      </c>
+      <c r="H88">
+        <v>39707.2</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>25.4</v>
+      </c>
+      <c r="K88">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L88">
+        <v>24</v>
+      </c>
+      <c r="M88">
+        <v>6274.120845299999</v>
+      </c>
+      <c r="N88">
+        <v>-6250.120845299999</v>
+      </c>
+      <c r="O88">
+        <v>-1031.2699394745</v>
+      </c>
+      <c r="P88">
+        <v>-5218.850905825499</v>
+      </c>
+      <c r="Q88">
+        <v>-5217.4509058255</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.377194572589195</v>
+      </c>
+      <c r="T88">
+        <v>6.93434495975228</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.0006311641260410966</v>
+      </c>
+      <c r="W88">
+        <v>0.1835840551500462</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.003825237127521808</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2124335275915271</v>
+      </c>
+      <c r="C89">
+        <v>-23127.88096511807</v>
+      </c>
+      <c r="D89">
+        <v>9616.92953488192</v>
+      </c>
+      <c r="E89">
+        <v>34544.3605</v>
+      </c>
+      <c r="F89">
+        <v>34551.31049999999</v>
+      </c>
+      <c r="G89">
+        <v>1806.5</v>
+      </c>
+      <c r="H89">
+        <v>39707.2</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>25.4</v>
+      </c>
+      <c r="K89">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L89">
+        <v>24</v>
+      </c>
+      <c r="M89">
+        <v>6347.075738849999</v>
+      </c>
+      <c r="N89">
+        <v>-6323.075738849999</v>
+      </c>
+      <c r="O89">
+        <v>-1043.30749691025</v>
+      </c>
+      <c r="P89">
+        <v>-5279.768241939749</v>
+      </c>
+      <c r="Q89">
+        <v>-5278.368241939749</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.4054941550960562</v>
+      </c>
+      <c r="T89">
+        <v>7.467756110502456</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.0006239093659716588</v>
+      </c>
+      <c r="W89">
+        <v>0.183585387849471</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.00378126888467667</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2141775275915271</v>
+      </c>
+      <c r="C90">
+        <v>-23606.88564116281</v>
+      </c>
+      <c r="D90">
+        <v>9535.066358837192</v>
+      </c>
+      <c r="E90">
+        <v>34941.502</v>
+      </c>
+      <c r="F90">
+        <v>34948.452</v>
+      </c>
+      <c r="G90">
+        <v>1806.5</v>
+      </c>
+      <c r="H90">
+        <v>39707.2</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>25.4</v>
+      </c>
+      <c r="K90">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L90">
+        <v>24</v>
+      </c>
+      <c r="M90">
+        <v>6420.030632399999</v>
+      </c>
+      <c r="N90">
+        <v>-6396.030632399999</v>
+      </c>
+      <c r="O90">
+        <v>-1055.345054346</v>
+      </c>
+      <c r="P90">
+        <v>-5340.685578053999</v>
+      </c>
+      <c r="Q90">
+        <v>-5339.285578053999</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.4385103346873941</v>
+      </c>
+      <c r="T90">
+        <v>8.090069119710993</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.0006168194868128898</v>
+      </c>
+      <c r="W90">
+        <v>0.1835866902602725</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.003738299920078125</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2159215275915271</v>
+      </c>
+      <c r="C91">
+        <v>-24084.50837621924</v>
+      </c>
+      <c r="D91">
+        <v>9454.58512378076</v>
+      </c>
+      <c r="E91">
+        <v>35338.6435</v>
+      </c>
+      <c r="F91">
+        <v>35345.5935</v>
+      </c>
+      <c r="G91">
+        <v>1806.5</v>
+      </c>
+      <c r="H91">
+        <v>39707.2</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>25.4</v>
+      </c>
+      <c r="K91">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L91">
+        <v>24</v>
+      </c>
+      <c r="M91">
+        <v>6492.985525949999</v>
+      </c>
+      <c r="N91">
+        <v>-6468.985525949999</v>
+      </c>
+      <c r="O91">
+        <v>-1067.38261178175</v>
+      </c>
+      <c r="P91">
+        <v>-5401.602914168249</v>
+      </c>
+      <c r="Q91">
+        <v>-5400.20291416825</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.4775294560226119</v>
+      </c>
+      <c r="T91">
+        <v>8.825529948775632</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.0006098889307812843</v>
+      </c>
+      <c r="W91">
+        <v>0.1835879634034155</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.003696296550189548</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2176655275915271</v>
+      </c>
+      <c r="C92">
+        <v>-24560.78387043826</v>
+      </c>
+      <c r="D92">
+        <v>9375.451129561734</v>
+      </c>
+      <c r="E92">
+        <v>35735.785</v>
+      </c>
+      <c r="F92">
+        <v>35742.73499999999</v>
+      </c>
+      <c r="G92">
+        <v>1806.5</v>
+      </c>
+      <c r="H92">
+        <v>39707.2</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>25.4</v>
+      </c>
+      <c r="K92">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L92">
+        <v>24</v>
+      </c>
+      <c r="M92">
+        <v>6565.940419499999</v>
+      </c>
+      <c r="N92">
+        <v>-6541.940419499999</v>
+      </c>
+      <c r="O92">
+        <v>-1079.4201692175</v>
+      </c>
+      <c r="P92">
+        <v>-5462.520250282499</v>
+      </c>
+      <c r="Q92">
+        <v>-5461.120250282499</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.5243524016248731</v>
+      </c>
+      <c r="T92">
+        <v>9.708082943653194</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.0006031123871059368</v>
+      </c>
+      <c r="W92">
+        <v>0.1835892082544886</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.003655226588520799</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2194095275915271</v>
+      </c>
+      <c r="C93">
+        <v>-25035.74567186573</v>
+      </c>
+      <c r="D93">
+        <v>9297.630828134266</v>
+      </c>
+      <c r="E93">
+        <v>36132.9265</v>
+      </c>
+      <c r="F93">
+        <v>36139.8765</v>
+      </c>
+      <c r="G93">
+        <v>1806.5</v>
+      </c>
+      <c r="H93">
+        <v>39707.2</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>25.4</v>
+      </c>
+      <c r="K93">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L93">
+        <v>24</v>
+      </c>
+      <c r="M93">
+        <v>6638.895313049999</v>
+      </c>
+      <c r="N93">
+        <v>-6614.895313049999</v>
+      </c>
+      <c r="O93">
+        <v>-1091.45772665325</v>
+      </c>
+      <c r="P93">
+        <v>-5523.43758639675</v>
+      </c>
+      <c r="Q93">
+        <v>-5522.03758639675</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.5815804462498592</v>
+      </c>
+      <c r="T93">
+        <v>10.78675882628133</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.000596484778456421</v>
+      </c>
+      <c r="W93">
+        <v>0.1835904257461975</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.003615059263372244</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2211535275915271</v>
+      </c>
+      <c r="C94">
+        <v>-25509.42622386363</v>
+      </c>
+      <c r="D94">
+        <v>9221.091776136363</v>
+      </c>
+      <c r="E94">
+        <v>36530.068</v>
+      </c>
+      <c r="F94">
+        <v>36537.018</v>
+      </c>
+      <c r="G94">
+        <v>1806.5</v>
+      </c>
+      <c r="H94">
+        <v>39707.2</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>25.4</v>
+      </c>
+      <c r="K94">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L94">
+        <v>24</v>
+      </c>
+      <c r="M94">
+        <v>6711.850206599999</v>
+      </c>
+      <c r="N94">
+        <v>-6687.850206599999</v>
+      </c>
+      <c r="O94">
+        <v>-1103.495284089</v>
+      </c>
+      <c r="P94">
+        <v>-5584.354922510999</v>
+      </c>
+      <c r="Q94">
+        <v>-5582.954922510999</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.6531155020310917</v>
+      </c>
+      <c r="T94">
+        <v>12.1351036795665</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.0005900012482558077</v>
+      </c>
+      <c r="W94">
+        <v>0.1835916167706954</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.003575765140944265</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2228975275915271</v>
+      </c>
+      <c r="C95">
+        <v>-25981.85691020822</v>
+      </c>
+      <c r="D95">
+        <v>9145.802589791778</v>
+      </c>
+      <c r="E95">
+        <v>36927.2095</v>
+      </c>
+      <c r="F95">
+        <v>36934.15949999999</v>
+      </c>
+      <c r="G95">
+        <v>1806.5</v>
+      </c>
+      <c r="H95">
+        <v>39707.2</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>25.4</v>
+      </c>
+      <c r="K95">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L95">
+        <v>24</v>
+      </c>
+      <c r="M95">
+        <v>6784.805100149999</v>
+      </c>
+      <c r="N95">
+        <v>-6760.805100149999</v>
+      </c>
+      <c r="O95">
+        <v>-1115.53284152475</v>
+      </c>
+      <c r="P95">
+        <v>-5645.272258625249</v>
+      </c>
+      <c r="Q95">
+        <v>-5643.87225862525</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.7450891451783906</v>
+      </c>
+      <c r="T95">
+        <v>13.86868991950457</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.0005836571488121968</v>
+      </c>
+      <c r="W95">
+        <v>0.1835927821817632</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.003537316053407236</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2246415275915271</v>
+      </c>
+      <c r="C96">
+        <v>-26453.06809799669</v>
+      </c>
+      <c r="D96">
+        <v>9071.732902003307</v>
+      </c>
+      <c r="E96">
+        <v>37324.351</v>
+      </c>
+      <c r="F96">
+        <v>37331.301</v>
+      </c>
+      <c r="G96">
+        <v>1806.5</v>
+      </c>
+      <c r="H96">
+        <v>39707.2</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>25.4</v>
+      </c>
+      <c r="K96">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L96">
+        <v>24</v>
+      </c>
+      <c r="M96">
+        <v>6857.7599937</v>
+      </c>
+      <c r="N96">
+        <v>-6833.7599937</v>
+      </c>
+      <c r="O96">
+        <v>-1127.5703989605</v>
+      </c>
+      <c r="P96">
+        <v>-5706.1895947395</v>
+      </c>
+      <c r="Q96">
+        <v>-5704.7895947395</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.8677206693747892</v>
+      </c>
+      <c r="T96">
+        <v>16.180138239422</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.0005774480302078118</v>
+      </c>
+      <c r="W96">
+        <v>0.1835939227968508</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.003499685031562505</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2263855275915271</v>
+      </c>
+      <c r="C97">
+        <v>-26923.08917848565</v>
+      </c>
+      <c r="D97">
+        <v>8998.853321514345</v>
+      </c>
+      <c r="E97">
+        <v>37721.4925</v>
+      </c>
+      <c r="F97">
+        <v>37728.4425</v>
+      </c>
+      <c r="G97">
+        <v>1806.5</v>
+      </c>
+      <c r="H97">
+        <v>39707.2</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>25.4</v>
+      </c>
+      <c r="K97">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L97">
+        <v>24</v>
+      </c>
+      <c r="M97">
+        <v>6930.714887249999</v>
+      </c>
+      <c r="N97">
+        <v>-6906.714887249999</v>
+      </c>
+      <c r="O97">
+        <v>-1139.60795639625</v>
+      </c>
+      <c r="P97">
+        <v>-5767.10693085375</v>
+      </c>
+      <c r="Q97">
+        <v>-5765.70693085375</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.039404803249748</v>
+      </c>
+      <c r="T97">
+        <v>19.41616588730641</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.0005713696298898348</v>
+      </c>
+      <c r="W97">
+        <v>0.1835950393989892</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.003462846241756523</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.228129527591527</v>
+      </c>
+      <c r="C98">
+        <v>-27391.94860597674</v>
+      </c>
+      <c r="D98">
+        <v>8927.135394023255</v>
+      </c>
+      <c r="E98">
+        <v>38118.634</v>
+      </c>
+      <c r="F98">
+        <v>38125.584</v>
+      </c>
+      <c r="G98">
+        <v>1806.5</v>
+      </c>
+      <c r="H98">
+        <v>39707.2</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>25.4</v>
+      </c>
+      <c r="K98">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L98">
+        <v>24</v>
+      </c>
+      <c r="M98">
+        <v>7003.669780799999</v>
+      </c>
+      <c r="N98">
+        <v>-6979.669780799999</v>
+      </c>
+      <c r="O98">
+        <v>-1151.645513832</v>
+      </c>
+      <c r="P98">
+        <v>-5828.024266967999</v>
+      </c>
+      <c r="Q98">
+        <v>-5826.624266968</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.296931004062182</v>
+      </c>
+      <c r="T98">
+        <v>24.27020735913296</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.0005654178629118157</v>
+      </c>
+      <c r="W98">
+        <v>0.1835961327385831</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.003426774926738263</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2298735275915271</v>
+      </c>
+      <c r="C99">
+        <v>-27859.67393485764</v>
+      </c>
+      <c r="D99">
+        <v>8856.551565142356</v>
+      </c>
+      <c r="E99">
+        <v>38515.7755</v>
+      </c>
+      <c r="F99">
+        <v>38522.72549999999</v>
+      </c>
+      <c r="G99">
+        <v>1806.5</v>
+      </c>
+      <c r="H99">
+        <v>39707.2</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>25.4</v>
+      </c>
+      <c r="K99">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L99">
+        <v>24</v>
+      </c>
+      <c r="M99">
+        <v>7076.624674349999</v>
+      </c>
+      <c r="N99">
+        <v>-7052.624674349999</v>
+      </c>
+      <c r="O99">
+        <v>-1163.68307126775</v>
+      </c>
+      <c r="P99">
+        <v>-5888.941603082249</v>
+      </c>
+      <c r="Q99">
+        <v>-5887.541603082249</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.726141338749576</v>
+      </c>
+      <c r="T99">
+        <v>32.36027647884395</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.0005595888127787042</v>
+      </c>
+      <c r="W99">
+        <v>0.1835972035350925</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.003391447350173937</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2316175275915271</v>
+      </c>
+      <c r="C100">
+        <v>-28326.29185489946</v>
+      </c>
+      <c r="D100">
+        <v>8787.075145100534</v>
+      </c>
+      <c r="E100">
+        <v>38912.91699999999</v>
+      </c>
+      <c r="F100">
+        <v>38919.86699999999</v>
+      </c>
+      <c r="G100">
+        <v>1806.5</v>
+      </c>
+      <c r="H100">
+        <v>39707.2</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>25.4</v>
+      </c>
+      <c r="K100">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L100">
+        <v>24</v>
+      </c>
+      <c r="M100">
+        <v>7149.579567899998</v>
+      </c>
+      <c r="N100">
+        <v>-7125.579567899998</v>
+      </c>
+      <c r="O100">
+        <v>-1175.7206287035</v>
+      </c>
+      <c r="P100">
+        <v>-5949.858939196499</v>
+      </c>
+      <c r="Q100">
+        <v>-5948.458939196499</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.584562008124363</v>
+      </c>
+      <c r="T100">
+        <v>48.54041471826593</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.000553878722852391</v>
+      </c>
+      <c r="W100">
+        <v>0.183598252478612</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.003356840744559997</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2333615275915271</v>
+      </c>
+      <c r="C101">
+        <v>-28791.82822490586</v>
+      </c>
+      <c r="D101">
+        <v>8718.680275094139</v>
+      </c>
+      <c r="E101">
+        <v>39310.0585</v>
+      </c>
+      <c r="F101">
+        <v>39317.0085</v>
+      </c>
+      <c r="G101">
+        <v>1806.5</v>
+      </c>
+      <c r="H101">
+        <v>39707.2</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>25.4</v>
+      </c>
+      <c r="K101">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L101">
+        <v>24</v>
+      </c>
+      <c r="M101">
+        <v>7222.534461449999</v>
+      </c>
+      <c r="N101">
+        <v>-7198.534461449999</v>
+      </c>
+      <c r="O101">
+        <v>-1187.75818613925</v>
+      </c>
+      <c r="P101">
+        <v>-6010.776275310749</v>
+      </c>
+      <c r="Q101">
+        <v>-6009.376275310749</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>5.159824016248726</v>
+      </c>
+      <c r="T101">
+        <v>97.08082943653186</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.0005482839882781244</v>
+      </c>
+      <c r="W101">
+        <v>0.1835992802313533</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.003322933262291716</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
